--- a/Covid-19 Resource Planning Data Input Template v3.0.xlsx
+++ b/Covid-19 Resource Planning Data Input Template v3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\templates\EYIP_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2237D8D1-8AAF-4DD0-97A8-D10E2F819414}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC85933A-0308-4AFC-91E0-F6FF7CAA48CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
   <sheets>
     <sheet name="Usage Guide" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="48">
   <si>
     <t>District</t>
   </si>
@@ -175,6 +175,9 @@
   <si>
     <t xml:space="preserve">The tab "SIR Model Inputs" / "SEIR Model Inputs"  is to be updated by the user. </t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +260,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -456,9 +465,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,7 +474,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +666,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
+              <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6691,7 +6704,7 @@
   </sheetPr>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -7289,2583 +7302,2604 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N276"/>
+  <dimension ref="A1:O276"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="37.77734375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="66" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.77734375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="68">
+        <v>43952</v>
+      </c>
+      <c r="C2" s="28">
         <v>100000</v>
       </c>
-      <c r="C2" s="29">
+      <c r="D2" s="29">
         <v>50</v>
       </c>
-      <c r="D2" s="29">
+      <c r="E2" s="29">
         <v>10</v>
       </c>
-      <c r="E2" s="29">
+      <c r="F2" s="29">
         <v>2</v>
       </c>
-      <c r="F2" s="29">
+      <c r="G2" s="29">
         <v>4</v>
       </c>
-      <c r="G2" s="30">
+      <c r="H2" s="30">
         <v>0.3</v>
       </c>
-      <c r="H2" s="29">
+      <c r="I2" s="29">
         <v>14</v>
       </c>
-      <c r="I2" s="30">
+      <c r="J2" s="30">
         <v>0.02</v>
       </c>
-      <c r="J2" s="30">
+      <c r="K2" s="30">
         <v>0.03</v>
       </c>
-      <c r="K2" s="31">
+      <c r="L2" s="31">
         <v>2</v>
       </c>
-      <c r="L2" s="30">
+      <c r="M2" s="30">
         <v>0.7</v>
       </c>
-      <c r="M2" s="30">
+      <c r="N2" s="30">
         <v>0.3</v>
       </c>
-      <c r="N2" s="29">
+      <c r="O2" s="29">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="24"/>
+      <c r="H3" s="25"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="32"/>
       <c r="M3" s="25"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="N3" s="25"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="65"/>
+      <c r="C4" s="24"/>
+      <c r="H4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="65"/>
+      <c r="C5" s="24"/>
+      <c r="H5" s="25"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="65"/>
+      <c r="C6" s="24"/>
+      <c r="H6" s="25"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="65"/>
+      <c r="C7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="65"/>
+      <c r="C8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="65"/>
+      <c r="C9" s="24"/>
+      <c r="H9" s="25"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="65"/>
+      <c r="C10" s="24"/>
+      <c r="H10" s="25"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="65"/>
+      <c r="C11" s="24"/>
+      <c r="H11" s="25"/>
       <c r="J11" s="25"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="65"/>
+      <c r="C12" s="24"/>
+      <c r="H12" s="25"/>
       <c r="J12" s="25"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="65"/>
+      <c r="C13" s="24"/>
+      <c r="H13" s="25"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="25"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="65"/>
+      <c r="C14" s="24"/>
+      <c r="H14" s="25"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="69"/>
+      <c r="C15" s="24"/>
+      <c r="H15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="69"/>
+      <c r="C16" s="24"/>
+      <c r="H16" s="25"/>
       <c r="J16" s="25"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="24"/>
+      <c r="H17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C18" s="24"/>
+      <c r="H18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="24"/>
+      <c r="H19" s="25"/>
       <c r="J19" s="25"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="24"/>
+      <c r="H20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="32"/>
       <c r="M20" s="25"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C21" s="24"/>
+      <c r="H21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="25"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="24"/>
+      <c r="H22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="32"/>
       <c r="M22" s="25"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="24"/>
+      <c r="H23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="25"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="24"/>
+      <c r="H24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="32"/>
       <c r="M24" s="25"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="N24" s="25"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="24"/>
+      <c r="H25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="32"/>
       <c r="M25" s="25"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="N25" s="25"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="24"/>
+      <c r="H26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="25"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="N26" s="25"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="24"/>
+      <c r="H27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="32"/>
       <c r="M27" s="25"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="N27" s="25"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="24"/>
+      <c r="H28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="25"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="N28" s="25"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="24"/>
+      <c r="H29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="32"/>
       <c r="M29" s="25"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C30" s="24"/>
+      <c r="H30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="32"/>
       <c r="M30" s="25"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="N30" s="25"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C31" s="24"/>
+      <c r="H31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="32"/>
       <c r="M31" s="25"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="G32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="N31" s="25"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="24"/>
+      <c r="H32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="32"/>
       <c r="M32" s="25"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
-      <c r="G33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="N32" s="25"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C33" s="24"/>
+      <c r="H33" s="25"/>
       <c r="J33" s="25"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="32"/>
       <c r="M33" s="25"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="I34" s="25"/>
+      <c r="N33" s="25"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C34" s="24"/>
+      <c r="H34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="32"/>
       <c r="M34" s="25"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="N34" s="25"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C35" s="24"/>
+      <c r="H35" s="25"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="32"/>
       <c r="M35" s="25"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="I36" s="25"/>
+      <c r="N35" s="25"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C36" s="24"/>
+      <c r="H36" s="25"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="32"/>
       <c r="M36" s="25"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="N36" s="25"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C37" s="24"/>
+      <c r="H37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="32"/>
       <c r="M37" s="25"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="I38" s="25"/>
+      <c r="N37" s="25"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C38" s="24"/>
+      <c r="H38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="32"/>
       <c r="M38" s="25"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="I39" s="25"/>
+      <c r="N38" s="25"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C39" s="24"/>
+      <c r="H39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="32"/>
       <c r="M39" s="25"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="N39" s="25"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C40" s="24"/>
+      <c r="H40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="32"/>
       <c r="M40" s="25"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="I41" s="25"/>
+      <c r="N40" s="25"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C41" s="24"/>
+      <c r="H41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="32"/>
       <c r="M41" s="25"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="I42" s="25"/>
+      <c r="N41" s="25"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C42" s="24"/>
+      <c r="H42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="32"/>
       <c r="M42" s="25"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
-      <c r="G43" s="25"/>
-      <c r="I43" s="25"/>
+      <c r="N42" s="25"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C43" s="24"/>
+      <c r="H43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="32"/>
       <c r="M43" s="25"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="I44" s="25"/>
+      <c r="N43" s="25"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C44" s="24"/>
+      <c r="H44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="32"/>
       <c r="M44" s="25"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="I45" s="25"/>
+      <c r="N44" s="25"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C45" s="24"/>
+      <c r="H45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="32"/>
       <c r="M45" s="25"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="I46" s="25"/>
+      <c r="N45" s="25"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C46" s="24"/>
+      <c r="H46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="32"/>
       <c r="M46" s="25"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="I47" s="25"/>
+      <c r="N46" s="25"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C47" s="24"/>
+      <c r="H47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="32"/>
       <c r="M47" s="25"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="I48" s="25"/>
+      <c r="N47" s="25"/>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C48" s="24"/>
+      <c r="H48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="32"/>
       <c r="M48" s="25"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="I49" s="25"/>
+      <c r="N48" s="25"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C49" s="24"/>
+      <c r="H49" s="25"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="32"/>
       <c r="M49" s="25"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="24"/>
-      <c r="G50" s="25"/>
-      <c r="I50" s="25"/>
+      <c r="N49" s="25"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C50" s="24"/>
+      <c r="H50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="32"/>
       <c r="M50" s="25"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="I51" s="25"/>
+      <c r="N50" s="25"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C51" s="24"/>
+      <c r="H51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="32"/>
       <c r="M51" s="25"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="24"/>
-      <c r="G52" s="25"/>
-      <c r="I52" s="25"/>
+      <c r="N51" s="25"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C52" s="24"/>
+      <c r="H52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="32"/>
       <c r="M52" s="25"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="24"/>
-      <c r="G53" s="25"/>
-      <c r="I53" s="25"/>
+      <c r="N52" s="25"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C53" s="24"/>
+      <c r="H53" s="25"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="32"/>
       <c r="M53" s="25"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="24"/>
-      <c r="G54" s="25"/>
-      <c r="I54" s="25"/>
+      <c r="N53" s="25"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C54" s="24"/>
+      <c r="H54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="32"/>
       <c r="M54" s="25"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="24"/>
-      <c r="G55" s="25"/>
-      <c r="I55" s="25"/>
+      <c r="N54" s="25"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C55" s="24"/>
+      <c r="H55" s="25"/>
       <c r="J55" s="25"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="32"/>
       <c r="M55" s="25"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="24"/>
-      <c r="G56" s="25"/>
-      <c r="I56" s="25"/>
+      <c r="N55" s="25"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C56" s="24"/>
+      <c r="H56" s="25"/>
       <c r="J56" s="25"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="32"/>
       <c r="M56" s="25"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="24"/>
-      <c r="G57" s="25"/>
-      <c r="I57" s="25"/>
+      <c r="N56" s="25"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C57" s="24"/>
+      <c r="H57" s="25"/>
       <c r="J57" s="25"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="32"/>
       <c r="M57" s="25"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="24"/>
-      <c r="G58" s="25"/>
-      <c r="I58" s="25"/>
+      <c r="N57" s="25"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C58" s="24"/>
+      <c r="H58" s="25"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="32"/>
       <c r="M58" s="25"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="24"/>
-      <c r="G59" s="25"/>
-      <c r="I59" s="25"/>
+      <c r="N58" s="25"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C59" s="24"/>
+      <c r="H59" s="25"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="32"/>
       <c r="M59" s="25"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="24"/>
-      <c r="G60" s="25"/>
-      <c r="I60" s="25"/>
+      <c r="N59" s="25"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C60" s="24"/>
+      <c r="H60" s="25"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="32"/>
       <c r="M60" s="25"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="24"/>
-      <c r="G61" s="25"/>
-      <c r="I61" s="25"/>
+      <c r="N60" s="25"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C61" s="24"/>
+      <c r="H61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="32"/>
       <c r="M61" s="25"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="24"/>
-      <c r="G62" s="25"/>
-      <c r="I62" s="25"/>
+      <c r="N61" s="25"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C62" s="24"/>
+      <c r="H62" s="25"/>
       <c r="J62" s="25"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="32"/>
       <c r="M62" s="25"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="24"/>
-      <c r="G63" s="25"/>
-      <c r="I63" s="25"/>
+      <c r="N62" s="25"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C63" s="24"/>
+      <c r="H63" s="25"/>
       <c r="J63" s="25"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="32"/>
       <c r="M63" s="25"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="24"/>
-      <c r="G64" s="25"/>
-      <c r="I64" s="25"/>
+      <c r="N63" s="25"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C64" s="24"/>
+      <c r="H64" s="25"/>
       <c r="J64" s="25"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="32"/>
       <c r="M64" s="25"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="24"/>
-      <c r="G65" s="25"/>
-      <c r="I65" s="25"/>
+      <c r="N64" s="25"/>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C65" s="24"/>
+      <c r="H65" s="25"/>
       <c r="J65" s="25"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="32"/>
       <c r="M65" s="25"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="24"/>
-      <c r="G66" s="25"/>
-      <c r="I66" s="25"/>
+      <c r="N65" s="25"/>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C66" s="24"/>
+      <c r="H66" s="25"/>
       <c r="J66" s="25"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="32"/>
       <c r="M66" s="25"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="24"/>
-      <c r="G67" s="25"/>
-      <c r="I67" s="25"/>
+      <c r="N66" s="25"/>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C67" s="24"/>
+      <c r="H67" s="25"/>
       <c r="J67" s="25"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="32"/>
       <c r="M67" s="25"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="24"/>
-      <c r="G68" s="25"/>
-      <c r="I68" s="25"/>
+      <c r="N67" s="25"/>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C68" s="24"/>
+      <c r="H68" s="25"/>
       <c r="J68" s="25"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="32"/>
       <c r="M68" s="25"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="24"/>
-      <c r="G69" s="25"/>
-      <c r="I69" s="25"/>
+      <c r="N68" s="25"/>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C69" s="24"/>
+      <c r="H69" s="25"/>
       <c r="J69" s="25"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="32"/>
       <c r="M69" s="25"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="24"/>
-      <c r="G70" s="25"/>
-      <c r="I70" s="25"/>
+      <c r="N69" s="25"/>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C70" s="24"/>
+      <c r="H70" s="25"/>
       <c r="J70" s="25"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="32"/>
       <c r="M70" s="25"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="24"/>
-      <c r="G71" s="25"/>
-      <c r="I71" s="25"/>
+      <c r="N70" s="25"/>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C71" s="24"/>
+      <c r="H71" s="25"/>
       <c r="J71" s="25"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="32"/>
       <c r="M71" s="25"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="24"/>
-      <c r="G72" s="25"/>
-      <c r="I72" s="25"/>
+      <c r="N71" s="25"/>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C72" s="24"/>
+      <c r="H72" s="25"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="32"/>
       <c r="M72" s="25"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="24"/>
-      <c r="G73" s="25"/>
-      <c r="I73" s="25"/>
+      <c r="N72" s="25"/>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C73" s="24"/>
+      <c r="H73" s="25"/>
       <c r="J73" s="25"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="32"/>
       <c r="M73" s="25"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="24"/>
-      <c r="G74" s="25"/>
-      <c r="I74" s="25"/>
+      <c r="N73" s="25"/>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C74" s="24"/>
+      <c r="H74" s="25"/>
       <c r="J74" s="25"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="32"/>
       <c r="M74" s="25"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" s="24"/>
-      <c r="G75" s="25"/>
-      <c r="I75" s="25"/>
+      <c r="N74" s="25"/>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C75" s="24"/>
+      <c r="H75" s="25"/>
       <c r="J75" s="25"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="32"/>
       <c r="M75" s="25"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="24"/>
-      <c r="G76" s="25"/>
-      <c r="I76" s="25"/>
+      <c r="N75" s="25"/>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C76" s="24"/>
+      <c r="H76" s="25"/>
       <c r="J76" s="25"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="32"/>
       <c r="M76" s="25"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="24"/>
-      <c r="G77" s="25"/>
-      <c r="I77" s="25"/>
+      <c r="N76" s="25"/>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C77" s="24"/>
+      <c r="H77" s="25"/>
       <c r="J77" s="25"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="32"/>
       <c r="M77" s="25"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="24"/>
-      <c r="G78" s="25"/>
-      <c r="I78" s="25"/>
+      <c r="N77" s="25"/>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C78" s="24"/>
+      <c r="H78" s="25"/>
       <c r="J78" s="25"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="32"/>
       <c r="M78" s="25"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="24"/>
-      <c r="G79" s="25"/>
-      <c r="I79" s="25"/>
+      <c r="N78" s="25"/>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C79" s="24"/>
+      <c r="H79" s="25"/>
       <c r="J79" s="25"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="32"/>
       <c r="M79" s="25"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="24"/>
-      <c r="G80" s="25"/>
-      <c r="I80" s="25"/>
+      <c r="N79" s="25"/>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C80" s="24"/>
+      <c r="H80" s="25"/>
       <c r="J80" s="25"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="32"/>
       <c r="M80" s="25"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B81" s="24"/>
-      <c r="G81" s="25"/>
-      <c r="I81" s="25"/>
+      <c r="N80" s="25"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C81" s="24"/>
+      <c r="H81" s="25"/>
       <c r="J81" s="25"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="32"/>
       <c r="M81" s="25"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B82" s="24"/>
-      <c r="G82" s="25"/>
-      <c r="I82" s="25"/>
+      <c r="N81" s="25"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C82" s="24"/>
+      <c r="H82" s="25"/>
       <c r="J82" s="25"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="32"/>
       <c r="M82" s="25"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B83" s="24"/>
-      <c r="G83" s="25"/>
-      <c r="I83" s="25"/>
+      <c r="N82" s="25"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C83" s="24"/>
+      <c r="H83" s="25"/>
       <c r="J83" s="25"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="32"/>
       <c r="M83" s="25"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B84" s="24"/>
-      <c r="G84" s="25"/>
-      <c r="I84" s="25"/>
+      <c r="N83" s="25"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C84" s="24"/>
+      <c r="H84" s="25"/>
       <c r="J84" s="25"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="32"/>
       <c r="M84" s="25"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B85" s="24"/>
-      <c r="G85" s="25"/>
-      <c r="I85" s="25"/>
+      <c r="N84" s="25"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C85" s="24"/>
+      <c r="H85" s="25"/>
       <c r="J85" s="25"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="32"/>
       <c r="M85" s="25"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="24"/>
-      <c r="G86" s="25"/>
-      <c r="I86" s="25"/>
+      <c r="N85" s="25"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C86" s="24"/>
+      <c r="H86" s="25"/>
       <c r="J86" s="25"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="32"/>
       <c r="M86" s="25"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="24"/>
-      <c r="G87" s="25"/>
-      <c r="I87" s="25"/>
+      <c r="N86" s="25"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C87" s="24"/>
+      <c r="H87" s="25"/>
       <c r="J87" s="25"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="32"/>
       <c r="M87" s="25"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="24"/>
-      <c r="G88" s="25"/>
-      <c r="I88" s="25"/>
+      <c r="N87" s="25"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C88" s="24"/>
+      <c r="H88" s="25"/>
       <c r="J88" s="25"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="32"/>
       <c r="M88" s="25"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B89" s="24"/>
-      <c r="G89" s="25"/>
-      <c r="I89" s="25"/>
+      <c r="N88" s="25"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C89" s="24"/>
+      <c r="H89" s="25"/>
       <c r="J89" s="25"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="32"/>
       <c r="M89" s="25"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B90" s="24"/>
-      <c r="G90" s="25"/>
-      <c r="I90" s="25"/>
+      <c r="N89" s="25"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C90" s="24"/>
+      <c r="H90" s="25"/>
       <c r="J90" s="25"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="32"/>
       <c r="M90" s="25"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B91" s="24"/>
-      <c r="G91" s="25"/>
-      <c r="I91" s="25"/>
+      <c r="N90" s="25"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C91" s="24"/>
+      <c r="H91" s="25"/>
       <c r="J91" s="25"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="32"/>
       <c r="M91" s="25"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="24"/>
-      <c r="G92" s="25"/>
-      <c r="I92" s="25"/>
+      <c r="N91" s="25"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C92" s="24"/>
+      <c r="H92" s="25"/>
       <c r="J92" s="25"/>
-      <c r="K92" s="32"/>
-      <c r="L92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="32"/>
       <c r="M92" s="25"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="24"/>
-      <c r="G93" s="25"/>
-      <c r="I93" s="25"/>
+      <c r="N92" s="25"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C93" s="24"/>
+      <c r="H93" s="25"/>
       <c r="J93" s="25"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="32"/>
       <c r="M93" s="25"/>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B94" s="24"/>
-      <c r="G94" s="25"/>
-      <c r="I94" s="25"/>
+      <c r="N93" s="25"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C94" s="24"/>
+      <c r="H94" s="25"/>
       <c r="J94" s="25"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="32"/>
       <c r="M94" s="25"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B95" s="24"/>
-      <c r="G95" s="25"/>
-      <c r="I95" s="25"/>
+      <c r="N94" s="25"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C95" s="24"/>
+      <c r="H95" s="25"/>
       <c r="J95" s="25"/>
-      <c r="K95" s="32"/>
-      <c r="L95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="32"/>
       <c r="M95" s="25"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B96" s="24"/>
-      <c r="G96" s="25"/>
-      <c r="I96" s="25"/>
+      <c r="N95" s="25"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C96" s="24"/>
+      <c r="H96" s="25"/>
       <c r="J96" s="25"/>
-      <c r="K96" s="32"/>
-      <c r="L96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="32"/>
       <c r="M96" s="25"/>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B97" s="24"/>
-      <c r="G97" s="25"/>
-      <c r="I97" s="25"/>
+      <c r="N96" s="25"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C97" s="24"/>
+      <c r="H97" s="25"/>
       <c r="J97" s="25"/>
-      <c r="K97" s="32"/>
-      <c r="L97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="32"/>
       <c r="M97" s="25"/>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B98" s="24"/>
-      <c r="G98" s="25"/>
-      <c r="I98" s="25"/>
+      <c r="N97" s="25"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C98" s="24"/>
+      <c r="H98" s="25"/>
       <c r="J98" s="25"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="32"/>
       <c r="M98" s="25"/>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B99" s="24"/>
-      <c r="G99" s="25"/>
-      <c r="I99" s="25"/>
+      <c r="N98" s="25"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C99" s="24"/>
+      <c r="H99" s="25"/>
       <c r="J99" s="25"/>
-      <c r="K99" s="32"/>
-      <c r="L99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="32"/>
       <c r="M99" s="25"/>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B100" s="24"/>
-      <c r="G100" s="25"/>
-      <c r="I100" s="25"/>
+      <c r="N99" s="25"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C100" s="24"/>
+      <c r="H100" s="25"/>
       <c r="J100" s="25"/>
-      <c r="K100" s="32"/>
-      <c r="L100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="32"/>
       <c r="M100" s="25"/>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B101" s="24"/>
-      <c r="G101" s="25"/>
-      <c r="I101" s="25"/>
+      <c r="N100" s="25"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C101" s="24"/>
+      <c r="H101" s="25"/>
       <c r="J101" s="25"/>
-      <c r="K101" s="32"/>
-      <c r="L101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="32"/>
       <c r="M101" s="25"/>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B102" s="24"/>
-      <c r="G102" s="25"/>
-      <c r="I102" s="25"/>
+      <c r="N101" s="25"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C102" s="24"/>
+      <c r="H102" s="25"/>
       <c r="J102" s="25"/>
-      <c r="K102" s="32"/>
-      <c r="L102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="32"/>
       <c r="M102" s="25"/>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B103" s="24"/>
-      <c r="G103" s="25"/>
-      <c r="I103" s="25"/>
+      <c r="N102" s="25"/>
+    </row>
+    <row r="103" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C103" s="24"/>
+      <c r="H103" s="25"/>
       <c r="J103" s="25"/>
-      <c r="K103" s="32"/>
-      <c r="L103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="32"/>
       <c r="M103" s="25"/>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B104" s="24"/>
-      <c r="G104" s="25"/>
-      <c r="I104" s="25"/>
+      <c r="N103" s="25"/>
+    </row>
+    <row r="104" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C104" s="24"/>
+      <c r="H104" s="25"/>
       <c r="J104" s="25"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="32"/>
       <c r="M104" s="25"/>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B105" s="24"/>
-      <c r="G105" s="25"/>
-      <c r="I105" s="25"/>
+      <c r="N104" s="25"/>
+    </row>
+    <row r="105" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C105" s="24"/>
+      <c r="H105" s="25"/>
       <c r="J105" s="25"/>
-      <c r="K105" s="32"/>
-      <c r="L105" s="25"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="32"/>
       <c r="M105" s="25"/>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B106" s="24"/>
-      <c r="G106" s="25"/>
-      <c r="I106" s="25"/>
+      <c r="N105" s="25"/>
+    </row>
+    <row r="106" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C106" s="24"/>
+      <c r="H106" s="25"/>
       <c r="J106" s="25"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="25"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="32"/>
       <c r="M106" s="25"/>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B107" s="24"/>
-      <c r="G107" s="25"/>
-      <c r="I107" s="25"/>
+      <c r="N106" s="25"/>
+    </row>
+    <row r="107" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C107" s="24"/>
+      <c r="H107" s="25"/>
       <c r="J107" s="25"/>
-      <c r="K107" s="32"/>
-      <c r="L107" s="25"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="32"/>
       <c r="M107" s="25"/>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B108" s="24"/>
-      <c r="G108" s="25"/>
-      <c r="I108" s="25"/>
+      <c r="N107" s="25"/>
+    </row>
+    <row r="108" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C108" s="24"/>
+      <c r="H108" s="25"/>
       <c r="J108" s="25"/>
-      <c r="K108" s="32"/>
-      <c r="L108" s="25"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="32"/>
       <c r="M108" s="25"/>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B109" s="24"/>
-      <c r="G109" s="25"/>
-      <c r="I109" s="25"/>
+      <c r="N108" s="25"/>
+    </row>
+    <row r="109" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C109" s="24"/>
+      <c r="H109" s="25"/>
       <c r="J109" s="25"/>
-      <c r="K109" s="32"/>
-      <c r="L109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="32"/>
       <c r="M109" s="25"/>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B110" s="24"/>
-      <c r="G110" s="25"/>
-      <c r="I110" s="25"/>
+      <c r="N109" s="25"/>
+    </row>
+    <row r="110" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C110" s="24"/>
+      <c r="H110" s="25"/>
       <c r="J110" s="25"/>
-      <c r="K110" s="32"/>
-      <c r="L110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="32"/>
       <c r="M110" s="25"/>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B111" s="24"/>
-      <c r="G111" s="25"/>
-      <c r="I111" s="25"/>
+      <c r="N110" s="25"/>
+    </row>
+    <row r="111" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C111" s="24"/>
+      <c r="H111" s="25"/>
       <c r="J111" s="25"/>
-      <c r="K111" s="32"/>
-      <c r="L111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="32"/>
       <c r="M111" s="25"/>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B112" s="24"/>
-      <c r="G112" s="25"/>
-      <c r="I112" s="25"/>
+      <c r="N111" s="25"/>
+    </row>
+    <row r="112" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C112" s="24"/>
+      <c r="H112" s="25"/>
       <c r="J112" s="25"/>
-      <c r="K112" s="32"/>
-      <c r="L112" s="25"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="32"/>
       <c r="M112" s="25"/>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B113" s="24"/>
-      <c r="G113" s="25"/>
-      <c r="I113" s="25"/>
+      <c r="N112" s="25"/>
+    </row>
+    <row r="113" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C113" s="24"/>
+      <c r="H113" s="25"/>
       <c r="J113" s="25"/>
-      <c r="K113" s="32"/>
-      <c r="L113" s="25"/>
+      <c r="K113" s="25"/>
+      <c r="L113" s="32"/>
       <c r="M113" s="25"/>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B114" s="24"/>
-      <c r="G114" s="25"/>
-      <c r="I114" s="25"/>
+      <c r="N113" s="25"/>
+    </row>
+    <row r="114" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C114" s="24"/>
+      <c r="H114" s="25"/>
       <c r="J114" s="25"/>
-      <c r="K114" s="32"/>
-      <c r="L114" s="25"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="32"/>
       <c r="M114" s="25"/>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B115" s="24"/>
-      <c r="G115" s="25"/>
-      <c r="I115" s="25"/>
+      <c r="N114" s="25"/>
+    </row>
+    <row r="115" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C115" s="24"/>
+      <c r="H115" s="25"/>
       <c r="J115" s="25"/>
-      <c r="K115" s="32"/>
-      <c r="L115" s="25"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="32"/>
       <c r="M115" s="25"/>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B116" s="24"/>
-      <c r="G116" s="25"/>
-      <c r="I116" s="25"/>
+      <c r="N115" s="25"/>
+    </row>
+    <row r="116" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C116" s="24"/>
+      <c r="H116" s="25"/>
       <c r="J116" s="25"/>
-      <c r="K116" s="32"/>
-      <c r="L116" s="25"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="32"/>
       <c r="M116" s="25"/>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B117" s="24"/>
-      <c r="G117" s="25"/>
-      <c r="I117" s="25"/>
+      <c r="N116" s="25"/>
+    </row>
+    <row r="117" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C117" s="24"/>
+      <c r="H117" s="25"/>
       <c r="J117" s="25"/>
-      <c r="K117" s="32"/>
-      <c r="L117" s="25"/>
+      <c r="K117" s="25"/>
+      <c r="L117" s="32"/>
       <c r="M117" s="25"/>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B118" s="24"/>
-      <c r="G118" s="25"/>
-      <c r="I118" s="25"/>
+      <c r="N117" s="25"/>
+    </row>
+    <row r="118" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C118" s="24"/>
+      <c r="H118" s="25"/>
       <c r="J118" s="25"/>
-      <c r="K118" s="32"/>
-      <c r="L118" s="25"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="32"/>
       <c r="M118" s="25"/>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B119" s="24"/>
-      <c r="G119" s="25"/>
-      <c r="I119" s="25"/>
+      <c r="N118" s="25"/>
+    </row>
+    <row r="119" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C119" s="24"/>
+      <c r="H119" s="25"/>
       <c r="J119" s="25"/>
-      <c r="K119" s="32"/>
-      <c r="L119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="32"/>
       <c r="M119" s="25"/>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B120" s="24"/>
-      <c r="G120" s="25"/>
-      <c r="I120" s="25"/>
+      <c r="N119" s="25"/>
+    </row>
+    <row r="120" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C120" s="24"/>
+      <c r="H120" s="25"/>
       <c r="J120" s="25"/>
-      <c r="K120" s="32"/>
-      <c r="L120" s="25"/>
+      <c r="K120" s="25"/>
+      <c r="L120" s="32"/>
       <c r="M120" s="25"/>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B121" s="24"/>
-      <c r="G121" s="25"/>
-      <c r="I121" s="25"/>
+      <c r="N120" s="25"/>
+    </row>
+    <row r="121" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C121" s="24"/>
+      <c r="H121" s="25"/>
       <c r="J121" s="25"/>
-      <c r="K121" s="32"/>
-      <c r="L121" s="25"/>
+      <c r="K121" s="25"/>
+      <c r="L121" s="32"/>
       <c r="M121" s="25"/>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B122" s="24"/>
-      <c r="G122" s="25"/>
-      <c r="I122" s="25"/>
+      <c r="N121" s="25"/>
+    </row>
+    <row r="122" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C122" s="24"/>
+      <c r="H122" s="25"/>
       <c r="J122" s="25"/>
-      <c r="K122" s="32"/>
-      <c r="L122" s="25"/>
+      <c r="K122" s="25"/>
+      <c r="L122" s="32"/>
       <c r="M122" s="25"/>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B123" s="24"/>
-      <c r="G123" s="25"/>
-      <c r="I123" s="25"/>
+      <c r="N122" s="25"/>
+    </row>
+    <row r="123" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C123" s="24"/>
+      <c r="H123" s="25"/>
       <c r="J123" s="25"/>
-      <c r="K123" s="32"/>
-      <c r="L123" s="25"/>
+      <c r="K123" s="25"/>
+      <c r="L123" s="32"/>
       <c r="M123" s="25"/>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B124" s="24"/>
-      <c r="G124" s="25"/>
-      <c r="I124" s="25"/>
+      <c r="N123" s="25"/>
+    </row>
+    <row r="124" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C124" s="24"/>
+      <c r="H124" s="25"/>
       <c r="J124" s="25"/>
-      <c r="K124" s="32"/>
-      <c r="L124" s="25"/>
+      <c r="K124" s="25"/>
+      <c r="L124" s="32"/>
       <c r="M124" s="25"/>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B125" s="24"/>
-      <c r="G125" s="25"/>
-      <c r="I125" s="25"/>
+      <c r="N124" s="25"/>
+    </row>
+    <row r="125" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C125" s="24"/>
+      <c r="H125" s="25"/>
       <c r="J125" s="25"/>
-      <c r="K125" s="32"/>
-      <c r="L125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="32"/>
       <c r="M125" s="25"/>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B126" s="24"/>
-      <c r="G126" s="25"/>
-      <c r="I126" s="25"/>
+      <c r="N125" s="25"/>
+    </row>
+    <row r="126" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C126" s="24"/>
+      <c r="H126" s="25"/>
       <c r="J126" s="25"/>
-      <c r="K126" s="32"/>
-      <c r="L126" s="25"/>
+      <c r="K126" s="25"/>
+      <c r="L126" s="32"/>
       <c r="M126" s="25"/>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B127" s="24"/>
-      <c r="G127" s="25"/>
-      <c r="I127" s="25"/>
+      <c r="N126" s="25"/>
+    </row>
+    <row r="127" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C127" s="24"/>
+      <c r="H127" s="25"/>
       <c r="J127" s="25"/>
-      <c r="K127" s="32"/>
-      <c r="L127" s="25"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="32"/>
       <c r="M127" s="25"/>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B128" s="24"/>
-      <c r="G128" s="25"/>
-      <c r="I128" s="25"/>
+      <c r="N127" s="25"/>
+    </row>
+    <row r="128" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C128" s="24"/>
+      <c r="H128" s="25"/>
       <c r="J128" s="25"/>
-      <c r="K128" s="32"/>
-      <c r="L128" s="25"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="32"/>
       <c r="M128" s="25"/>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B129" s="24"/>
-      <c r="G129" s="25"/>
-      <c r="I129" s="25"/>
+      <c r="N128" s="25"/>
+    </row>
+    <row r="129" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C129" s="24"/>
+      <c r="H129" s="25"/>
       <c r="J129" s="25"/>
-      <c r="K129" s="32"/>
-      <c r="L129" s="25"/>
+      <c r="K129" s="25"/>
+      <c r="L129" s="32"/>
       <c r="M129" s="25"/>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B130" s="24"/>
-      <c r="G130" s="25"/>
-      <c r="I130" s="25"/>
+      <c r="N129" s="25"/>
+    </row>
+    <row r="130" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C130" s="24"/>
+      <c r="H130" s="25"/>
       <c r="J130" s="25"/>
-      <c r="K130" s="32"/>
-      <c r="L130" s="25"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="32"/>
       <c r="M130" s="25"/>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B131" s="24"/>
-      <c r="G131" s="25"/>
-      <c r="I131" s="25"/>
+      <c r="N130" s="25"/>
+    </row>
+    <row r="131" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C131" s="24"/>
+      <c r="H131" s="25"/>
       <c r="J131" s="25"/>
-      <c r="K131" s="32"/>
-      <c r="L131" s="25"/>
+      <c r="K131" s="25"/>
+      <c r="L131" s="32"/>
       <c r="M131" s="25"/>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B132" s="24"/>
-      <c r="G132" s="25"/>
-      <c r="I132" s="25"/>
+      <c r="N131" s="25"/>
+    </row>
+    <row r="132" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C132" s="24"/>
+      <c r="H132" s="25"/>
       <c r="J132" s="25"/>
-      <c r="K132" s="32"/>
-      <c r="L132" s="25"/>
+      <c r="K132" s="25"/>
+      <c r="L132" s="32"/>
       <c r="M132" s="25"/>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B133" s="24"/>
-      <c r="G133" s="25"/>
-      <c r="I133" s="25"/>
+      <c r="N132" s="25"/>
+    </row>
+    <row r="133" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C133" s="24"/>
+      <c r="H133" s="25"/>
       <c r="J133" s="25"/>
-      <c r="K133" s="32"/>
-      <c r="L133" s="25"/>
+      <c r="K133" s="25"/>
+      <c r="L133" s="32"/>
       <c r="M133" s="25"/>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B134" s="24"/>
-      <c r="G134" s="25"/>
-      <c r="I134" s="25"/>
+      <c r="N133" s="25"/>
+    </row>
+    <row r="134" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C134" s="24"/>
+      <c r="H134" s="25"/>
       <c r="J134" s="25"/>
-      <c r="K134" s="32"/>
-      <c r="L134" s="25"/>
+      <c r="K134" s="25"/>
+      <c r="L134" s="32"/>
       <c r="M134" s="25"/>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B135" s="24"/>
-      <c r="G135" s="25"/>
-      <c r="I135" s="25"/>
+      <c r="N134" s="25"/>
+    </row>
+    <row r="135" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C135" s="24"/>
+      <c r="H135" s="25"/>
       <c r="J135" s="25"/>
-      <c r="K135" s="32"/>
-      <c r="L135" s="25"/>
+      <c r="K135" s="25"/>
+      <c r="L135" s="32"/>
       <c r="M135" s="25"/>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B136" s="24"/>
-      <c r="G136" s="25"/>
-      <c r="I136" s="25"/>
+      <c r="N135" s="25"/>
+    </row>
+    <row r="136" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C136" s="24"/>
+      <c r="H136" s="25"/>
       <c r="J136" s="25"/>
-      <c r="K136" s="32"/>
-      <c r="L136" s="25"/>
+      <c r="K136" s="25"/>
+      <c r="L136" s="32"/>
       <c r="M136" s="25"/>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B137" s="24"/>
-      <c r="G137" s="25"/>
-      <c r="I137" s="25"/>
+      <c r="N136" s="25"/>
+    </row>
+    <row r="137" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C137" s="24"/>
+      <c r="H137" s="25"/>
       <c r="J137" s="25"/>
-      <c r="K137" s="32"/>
-      <c r="L137" s="25"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="32"/>
       <c r="M137" s="25"/>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B138" s="24"/>
-      <c r="G138" s="25"/>
-      <c r="I138" s="25"/>
+      <c r="N137" s="25"/>
+    </row>
+    <row r="138" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C138" s="24"/>
+      <c r="H138" s="25"/>
       <c r="J138" s="25"/>
-      <c r="K138" s="32"/>
-      <c r="L138" s="25"/>
+      <c r="K138" s="25"/>
+      <c r="L138" s="32"/>
       <c r="M138" s="25"/>
-    </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B139" s="24"/>
-      <c r="G139" s="25"/>
-      <c r="I139" s="25"/>
+      <c r="N138" s="25"/>
+    </row>
+    <row r="139" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C139" s="24"/>
+      <c r="H139" s="25"/>
       <c r="J139" s="25"/>
-      <c r="K139" s="32"/>
-      <c r="L139" s="25"/>
+      <c r="K139" s="25"/>
+      <c r="L139" s="32"/>
       <c r="M139" s="25"/>
-    </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B140" s="24"/>
-      <c r="G140" s="25"/>
-      <c r="I140" s="25"/>
+      <c r="N139" s="25"/>
+    </row>
+    <row r="140" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C140" s="24"/>
+      <c r="H140" s="25"/>
       <c r="J140" s="25"/>
-      <c r="K140" s="32"/>
-      <c r="L140" s="25"/>
+      <c r="K140" s="25"/>
+      <c r="L140" s="32"/>
       <c r="M140" s="25"/>
-    </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B141" s="24"/>
-      <c r="G141" s="25"/>
-      <c r="I141" s="25"/>
+      <c r="N140" s="25"/>
+    </row>
+    <row r="141" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C141" s="24"/>
+      <c r="H141" s="25"/>
       <c r="J141" s="25"/>
-      <c r="K141" s="32"/>
-      <c r="L141" s="25"/>
+      <c r="K141" s="25"/>
+      <c r="L141" s="32"/>
       <c r="M141" s="25"/>
-    </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B142" s="24"/>
-      <c r="G142" s="25"/>
-      <c r="I142" s="25"/>
+      <c r="N141" s="25"/>
+    </row>
+    <row r="142" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C142" s="24"/>
+      <c r="H142" s="25"/>
       <c r="J142" s="25"/>
-      <c r="K142" s="32"/>
-      <c r="L142" s="25"/>
+      <c r="K142" s="25"/>
+      <c r="L142" s="32"/>
       <c r="M142" s="25"/>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B143" s="24"/>
-      <c r="G143" s="25"/>
-      <c r="I143" s="25"/>
+      <c r="N142" s="25"/>
+    </row>
+    <row r="143" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C143" s="24"/>
+      <c r="H143" s="25"/>
       <c r="J143" s="25"/>
-      <c r="K143" s="32"/>
-      <c r="L143" s="25"/>
+      <c r="K143" s="25"/>
+      <c r="L143" s="32"/>
       <c r="M143" s="25"/>
-    </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B144" s="24"/>
-      <c r="G144" s="25"/>
-      <c r="I144" s="25"/>
+      <c r="N143" s="25"/>
+    </row>
+    <row r="144" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C144" s="24"/>
+      <c r="H144" s="25"/>
       <c r="J144" s="25"/>
-      <c r="K144" s="32"/>
-      <c r="L144" s="25"/>
+      <c r="K144" s="25"/>
+      <c r="L144" s="32"/>
       <c r="M144" s="25"/>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B145" s="24"/>
-      <c r="G145" s="25"/>
-      <c r="I145" s="25"/>
+      <c r="N144" s="25"/>
+    </row>
+    <row r="145" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C145" s="24"/>
+      <c r="H145" s="25"/>
       <c r="J145" s="25"/>
-      <c r="K145" s="32"/>
-      <c r="L145" s="25"/>
+      <c r="K145" s="25"/>
+      <c r="L145" s="32"/>
       <c r="M145" s="25"/>
-    </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B146" s="24"/>
-      <c r="G146" s="25"/>
-      <c r="I146" s="25"/>
+      <c r="N145" s="25"/>
+    </row>
+    <row r="146" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C146" s="24"/>
+      <c r="H146" s="25"/>
       <c r="J146" s="25"/>
-      <c r="K146" s="32"/>
-      <c r="L146" s="25"/>
+      <c r="K146" s="25"/>
+      <c r="L146" s="32"/>
       <c r="M146" s="25"/>
-    </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B147" s="24"/>
-      <c r="G147" s="25"/>
-      <c r="I147" s="25"/>
+      <c r="N146" s="25"/>
+    </row>
+    <row r="147" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C147" s="24"/>
+      <c r="H147" s="25"/>
       <c r="J147" s="25"/>
-      <c r="K147" s="32"/>
-      <c r="L147" s="25"/>
+      <c r="K147" s="25"/>
+      <c r="L147" s="32"/>
       <c r="M147" s="25"/>
-    </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B148" s="24"/>
-      <c r="G148" s="25"/>
-      <c r="I148" s="25"/>
+      <c r="N147" s="25"/>
+    </row>
+    <row r="148" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C148" s="24"/>
+      <c r="H148" s="25"/>
       <c r="J148" s="25"/>
-      <c r="K148" s="32"/>
-      <c r="L148" s="25"/>
+      <c r="K148" s="25"/>
+      <c r="L148" s="32"/>
       <c r="M148" s="25"/>
-    </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B149" s="24"/>
-      <c r="G149" s="25"/>
-      <c r="I149" s="25"/>
+      <c r="N148" s="25"/>
+    </row>
+    <row r="149" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C149" s="24"/>
+      <c r="H149" s="25"/>
       <c r="J149" s="25"/>
-      <c r="K149" s="32"/>
-      <c r="L149" s="25"/>
+      <c r="K149" s="25"/>
+      <c r="L149" s="32"/>
       <c r="M149" s="25"/>
-    </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B150" s="24"/>
-      <c r="G150" s="25"/>
-      <c r="I150" s="25"/>
+      <c r="N149" s="25"/>
+    </row>
+    <row r="150" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C150" s="24"/>
+      <c r="H150" s="25"/>
       <c r="J150" s="25"/>
-      <c r="K150" s="32"/>
-      <c r="L150" s="25"/>
+      <c r="K150" s="25"/>
+      <c r="L150" s="32"/>
       <c r="M150" s="25"/>
-    </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B151" s="24"/>
-      <c r="G151" s="25"/>
-      <c r="I151" s="25"/>
+      <c r="N150" s="25"/>
+    </row>
+    <row r="151" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C151" s="24"/>
+      <c r="H151" s="25"/>
       <c r="J151" s="25"/>
-      <c r="K151" s="32"/>
-      <c r="L151" s="25"/>
+      <c r="K151" s="25"/>
+      <c r="L151" s="32"/>
       <c r="M151" s="25"/>
-    </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B152" s="24"/>
-      <c r="G152" s="25"/>
-      <c r="I152" s="25"/>
+      <c r="N151" s="25"/>
+    </row>
+    <row r="152" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C152" s="24"/>
+      <c r="H152" s="25"/>
       <c r="J152" s="25"/>
-      <c r="K152" s="32"/>
-      <c r="L152" s="25"/>
+      <c r="K152" s="25"/>
+      <c r="L152" s="32"/>
       <c r="M152" s="25"/>
-    </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B153" s="24"/>
-      <c r="G153" s="25"/>
-      <c r="I153" s="25"/>
+      <c r="N152" s="25"/>
+    </row>
+    <row r="153" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C153" s="24"/>
+      <c r="H153" s="25"/>
       <c r="J153" s="25"/>
-      <c r="K153" s="32"/>
-      <c r="L153" s="25"/>
+      <c r="K153" s="25"/>
+      <c r="L153" s="32"/>
       <c r="M153" s="25"/>
-    </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B154" s="24"/>
-      <c r="G154" s="25"/>
-      <c r="I154" s="25"/>
+      <c r="N153" s="25"/>
+    </row>
+    <row r="154" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C154" s="24"/>
+      <c r="H154" s="25"/>
       <c r="J154" s="25"/>
-      <c r="K154" s="32"/>
-      <c r="L154" s="25"/>
+      <c r="K154" s="25"/>
+      <c r="L154" s="32"/>
       <c r="M154" s="25"/>
-    </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B155" s="24"/>
-      <c r="G155" s="25"/>
-      <c r="I155" s="25"/>
+      <c r="N154" s="25"/>
+    </row>
+    <row r="155" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C155" s="24"/>
+      <c r="H155" s="25"/>
       <c r="J155" s="25"/>
-      <c r="K155" s="32"/>
-      <c r="L155" s="25"/>
+      <c r="K155" s="25"/>
+      <c r="L155" s="32"/>
       <c r="M155" s="25"/>
-    </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B156" s="24"/>
-      <c r="G156" s="25"/>
-      <c r="I156" s="25"/>
+      <c r="N155" s="25"/>
+    </row>
+    <row r="156" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C156" s="24"/>
+      <c r="H156" s="25"/>
       <c r="J156" s="25"/>
-      <c r="K156" s="32"/>
-      <c r="L156" s="25"/>
+      <c r="K156" s="25"/>
+      <c r="L156" s="32"/>
       <c r="M156" s="25"/>
-    </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B157" s="24"/>
-      <c r="G157" s="25"/>
-      <c r="I157" s="25"/>
+      <c r="N156" s="25"/>
+    </row>
+    <row r="157" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C157" s="24"/>
+      <c r="H157" s="25"/>
       <c r="J157" s="25"/>
-      <c r="K157" s="32"/>
-      <c r="L157" s="25"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="32"/>
       <c r="M157" s="25"/>
-    </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B158" s="24"/>
-      <c r="G158" s="25"/>
-      <c r="I158" s="25"/>
+      <c r="N157" s="25"/>
+    </row>
+    <row r="158" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C158" s="24"/>
+      <c r="H158" s="25"/>
       <c r="J158" s="25"/>
-      <c r="K158" s="32"/>
-      <c r="L158" s="25"/>
+      <c r="K158" s="25"/>
+      <c r="L158" s="32"/>
       <c r="M158" s="25"/>
-    </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B159" s="24"/>
-      <c r="G159" s="25"/>
-      <c r="I159" s="25"/>
+      <c r="N158" s="25"/>
+    </row>
+    <row r="159" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C159" s="24"/>
+      <c r="H159" s="25"/>
       <c r="J159" s="25"/>
-      <c r="K159" s="32"/>
-      <c r="L159" s="25"/>
+      <c r="K159" s="25"/>
+      <c r="L159" s="32"/>
       <c r="M159" s="25"/>
-    </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B160" s="24"/>
-      <c r="G160" s="25"/>
-      <c r="I160" s="25"/>
+      <c r="N159" s="25"/>
+    </row>
+    <row r="160" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C160" s="24"/>
+      <c r="H160" s="25"/>
       <c r="J160" s="25"/>
-      <c r="K160" s="32"/>
-      <c r="L160" s="25"/>
+      <c r="K160" s="25"/>
+      <c r="L160" s="32"/>
       <c r="M160" s="25"/>
-    </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B161" s="24"/>
-      <c r="G161" s="25"/>
-      <c r="I161" s="25"/>
+      <c r="N160" s="25"/>
+    </row>
+    <row r="161" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C161" s="24"/>
+      <c r="H161" s="25"/>
       <c r="J161" s="25"/>
-      <c r="K161" s="32"/>
-      <c r="L161" s="25"/>
+      <c r="K161" s="25"/>
+      <c r="L161" s="32"/>
       <c r="M161" s="25"/>
-    </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B162" s="24"/>
-      <c r="G162" s="25"/>
-      <c r="I162" s="25"/>
+      <c r="N161" s="25"/>
+    </row>
+    <row r="162" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C162" s="24"/>
+      <c r="H162" s="25"/>
       <c r="J162" s="25"/>
-      <c r="K162" s="32"/>
-      <c r="L162" s="25"/>
+      <c r="K162" s="25"/>
+      <c r="L162" s="32"/>
       <c r="M162" s="25"/>
-    </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B163" s="24"/>
-      <c r="G163" s="25"/>
-      <c r="I163" s="25"/>
+      <c r="N162" s="25"/>
+    </row>
+    <row r="163" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C163" s="24"/>
+      <c r="H163" s="25"/>
       <c r="J163" s="25"/>
-      <c r="K163" s="32"/>
-      <c r="L163" s="25"/>
+      <c r="K163" s="25"/>
+      <c r="L163" s="32"/>
       <c r="M163" s="25"/>
-    </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B164" s="24"/>
-      <c r="G164" s="25"/>
-      <c r="I164" s="25"/>
+      <c r="N163" s="25"/>
+    </row>
+    <row r="164" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C164" s="24"/>
+      <c r="H164" s="25"/>
       <c r="J164" s="25"/>
-      <c r="K164" s="32"/>
-      <c r="L164" s="25"/>
+      <c r="K164" s="25"/>
+      <c r="L164" s="32"/>
       <c r="M164" s="25"/>
-    </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B165" s="24"/>
-      <c r="G165" s="25"/>
-      <c r="I165" s="25"/>
+      <c r="N164" s="25"/>
+    </row>
+    <row r="165" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C165" s="24"/>
+      <c r="H165" s="25"/>
       <c r="J165" s="25"/>
-      <c r="K165" s="32"/>
-      <c r="L165" s="25"/>
+      <c r="K165" s="25"/>
+      <c r="L165" s="32"/>
       <c r="M165" s="25"/>
-    </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B166" s="24"/>
-      <c r="G166" s="25"/>
-      <c r="I166" s="25"/>
+      <c r="N165" s="25"/>
+    </row>
+    <row r="166" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C166" s="24"/>
+      <c r="H166" s="25"/>
       <c r="J166" s="25"/>
-      <c r="K166" s="32"/>
-      <c r="L166" s="25"/>
+      <c r="K166" s="25"/>
+      <c r="L166" s="32"/>
       <c r="M166" s="25"/>
-    </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B167" s="24"/>
-      <c r="G167" s="25"/>
-      <c r="I167" s="25"/>
+      <c r="N166" s="25"/>
+    </row>
+    <row r="167" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C167" s="24"/>
+      <c r="H167" s="25"/>
       <c r="J167" s="25"/>
-      <c r="K167" s="32"/>
-      <c r="L167" s="25"/>
+      <c r="K167" s="25"/>
+      <c r="L167" s="32"/>
       <c r="M167" s="25"/>
-    </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B168" s="24"/>
-      <c r="G168" s="25"/>
-      <c r="I168" s="25"/>
+      <c r="N167" s="25"/>
+    </row>
+    <row r="168" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C168" s="24"/>
+      <c r="H168" s="25"/>
       <c r="J168" s="25"/>
-      <c r="K168" s="32"/>
-      <c r="L168" s="25"/>
+      <c r="K168" s="25"/>
+      <c r="L168" s="32"/>
       <c r="M168" s="25"/>
-    </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B169" s="24"/>
-      <c r="G169" s="25"/>
-      <c r="I169" s="25"/>
+      <c r="N168" s="25"/>
+    </row>
+    <row r="169" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C169" s="24"/>
+      <c r="H169" s="25"/>
       <c r="J169" s="25"/>
-      <c r="K169" s="32"/>
-      <c r="L169" s="25"/>
+      <c r="K169" s="25"/>
+      <c r="L169" s="32"/>
       <c r="M169" s="25"/>
-    </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B170" s="24"/>
-      <c r="G170" s="25"/>
-      <c r="I170" s="25"/>
+      <c r="N169" s="25"/>
+    </row>
+    <row r="170" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C170" s="24"/>
+      <c r="H170" s="25"/>
       <c r="J170" s="25"/>
-      <c r="K170" s="32"/>
-      <c r="L170" s="25"/>
+      <c r="K170" s="25"/>
+      <c r="L170" s="32"/>
       <c r="M170" s="25"/>
-    </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B171" s="24"/>
-      <c r="G171" s="25"/>
-      <c r="I171" s="25"/>
+      <c r="N170" s="25"/>
+    </row>
+    <row r="171" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C171" s="24"/>
+      <c r="H171" s="25"/>
       <c r="J171" s="25"/>
-      <c r="K171" s="32"/>
-      <c r="L171" s="25"/>
+      <c r="K171" s="25"/>
+      <c r="L171" s="32"/>
       <c r="M171" s="25"/>
-    </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B172" s="24"/>
-      <c r="G172" s="25"/>
-      <c r="I172" s="25"/>
+      <c r="N171" s="25"/>
+    </row>
+    <row r="172" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C172" s="24"/>
+      <c r="H172" s="25"/>
       <c r="J172" s="25"/>
-      <c r="K172" s="32"/>
-      <c r="L172" s="25"/>
+      <c r="K172" s="25"/>
+      <c r="L172" s="32"/>
       <c r="M172" s="25"/>
-    </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B173" s="24"/>
-      <c r="G173" s="25"/>
-      <c r="I173" s="25"/>
+      <c r="N172" s="25"/>
+    </row>
+    <row r="173" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C173" s="24"/>
+      <c r="H173" s="25"/>
       <c r="J173" s="25"/>
-      <c r="K173" s="32"/>
-      <c r="L173" s="25"/>
+      <c r="K173" s="25"/>
+      <c r="L173" s="32"/>
       <c r="M173" s="25"/>
-    </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B174" s="24"/>
-      <c r="G174" s="25"/>
-      <c r="I174" s="25"/>
+      <c r="N173" s="25"/>
+    </row>
+    <row r="174" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C174" s="24"/>
+      <c r="H174" s="25"/>
       <c r="J174" s="25"/>
-      <c r="K174" s="32"/>
-      <c r="L174" s="25"/>
+      <c r="K174" s="25"/>
+      <c r="L174" s="32"/>
       <c r="M174" s="25"/>
-    </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B175" s="24"/>
-      <c r="G175" s="25"/>
-      <c r="I175" s="25"/>
+      <c r="N174" s="25"/>
+    </row>
+    <row r="175" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C175" s="24"/>
+      <c r="H175" s="25"/>
       <c r="J175" s="25"/>
-      <c r="K175" s="32"/>
-      <c r="L175" s="25"/>
+      <c r="K175" s="25"/>
+      <c r="L175" s="32"/>
       <c r="M175" s="25"/>
-    </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B176" s="24"/>
-      <c r="G176" s="25"/>
-      <c r="I176" s="25"/>
+      <c r="N175" s="25"/>
+    </row>
+    <row r="176" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C176" s="24"/>
+      <c r="H176" s="25"/>
       <c r="J176" s="25"/>
-      <c r="K176" s="32"/>
-      <c r="L176" s="25"/>
+      <c r="K176" s="25"/>
+      <c r="L176" s="32"/>
       <c r="M176" s="25"/>
-    </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B177" s="24"/>
-      <c r="G177" s="25"/>
-      <c r="I177" s="25"/>
+      <c r="N176" s="25"/>
+    </row>
+    <row r="177" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C177" s="24"/>
+      <c r="H177" s="25"/>
       <c r="J177" s="25"/>
-      <c r="K177" s="32"/>
-      <c r="L177" s="25"/>
+      <c r="K177" s="25"/>
+      <c r="L177" s="32"/>
       <c r="M177" s="25"/>
-    </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B178" s="24"/>
-      <c r="G178" s="25"/>
-      <c r="I178" s="25"/>
+      <c r="N177" s="25"/>
+    </row>
+    <row r="178" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C178" s="24"/>
+      <c r="H178" s="25"/>
       <c r="J178" s="25"/>
-      <c r="K178" s="32"/>
-      <c r="L178" s="25"/>
+      <c r="K178" s="25"/>
+      <c r="L178" s="32"/>
       <c r="M178" s="25"/>
-    </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B179" s="24"/>
-      <c r="G179" s="25"/>
-      <c r="I179" s="25"/>
+      <c r="N178" s="25"/>
+    </row>
+    <row r="179" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C179" s="24"/>
+      <c r="H179" s="25"/>
       <c r="J179" s="25"/>
-      <c r="K179" s="32"/>
-      <c r="L179" s="25"/>
+      <c r="K179" s="25"/>
+      <c r="L179" s="32"/>
       <c r="M179" s="25"/>
-    </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B180" s="24"/>
-      <c r="G180" s="25"/>
-      <c r="I180" s="25"/>
+      <c r="N179" s="25"/>
+    </row>
+    <row r="180" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C180" s="24"/>
+      <c r="H180" s="25"/>
       <c r="J180" s="25"/>
-      <c r="K180" s="32"/>
-      <c r="L180" s="25"/>
+      <c r="K180" s="25"/>
+      <c r="L180" s="32"/>
       <c r="M180" s="25"/>
-    </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B181" s="24"/>
-      <c r="G181" s="25"/>
-      <c r="I181" s="25"/>
+      <c r="N180" s="25"/>
+    </row>
+    <row r="181" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C181" s="24"/>
+      <c r="H181" s="25"/>
       <c r="J181" s="25"/>
-      <c r="K181" s="32"/>
-      <c r="L181" s="25"/>
+      <c r="K181" s="25"/>
+      <c r="L181" s="32"/>
       <c r="M181" s="25"/>
-    </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B182" s="24"/>
-      <c r="G182" s="25"/>
-      <c r="I182" s="25"/>
+      <c r="N181" s="25"/>
+    </row>
+    <row r="182" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C182" s="24"/>
+      <c r="H182" s="25"/>
       <c r="J182" s="25"/>
-      <c r="K182" s="32"/>
-      <c r="L182" s="25"/>
+      <c r="K182" s="25"/>
+      <c r="L182" s="32"/>
       <c r="M182" s="25"/>
-    </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B183" s="24"/>
-      <c r="G183" s="25"/>
-      <c r="I183" s="25"/>
+      <c r="N182" s="25"/>
+    </row>
+    <row r="183" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C183" s="24"/>
+      <c r="H183" s="25"/>
       <c r="J183" s="25"/>
-      <c r="K183" s="32"/>
-      <c r="L183" s="25"/>
+      <c r="K183" s="25"/>
+      <c r="L183" s="32"/>
       <c r="M183" s="25"/>
-    </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B184" s="24"/>
-      <c r="G184" s="25"/>
-      <c r="I184" s="25"/>
+      <c r="N183" s="25"/>
+    </row>
+    <row r="184" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C184" s="24"/>
+      <c r="H184" s="25"/>
       <c r="J184" s="25"/>
-      <c r="K184" s="32"/>
-      <c r="L184" s="25"/>
+      <c r="K184" s="25"/>
+      <c r="L184" s="32"/>
       <c r="M184" s="25"/>
-    </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B185" s="24"/>
-      <c r="G185" s="25"/>
-      <c r="I185" s="25"/>
+      <c r="N184" s="25"/>
+    </row>
+    <row r="185" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C185" s="24"/>
+      <c r="H185" s="25"/>
       <c r="J185" s="25"/>
-      <c r="K185" s="32"/>
-      <c r="L185" s="25"/>
+      <c r="K185" s="25"/>
+      <c r="L185" s="32"/>
       <c r="M185" s="25"/>
-    </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B186" s="24"/>
-      <c r="G186" s="25"/>
-      <c r="I186" s="25"/>
+      <c r="N185" s="25"/>
+    </row>
+    <row r="186" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C186" s="24"/>
+      <c r="H186" s="25"/>
       <c r="J186" s="25"/>
-      <c r="K186" s="32"/>
-      <c r="L186" s="25"/>
+      <c r="K186" s="25"/>
+      <c r="L186" s="32"/>
       <c r="M186" s="25"/>
-    </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B187" s="24"/>
-      <c r="G187" s="25"/>
-      <c r="I187" s="25"/>
+      <c r="N186" s="25"/>
+    </row>
+    <row r="187" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C187" s="24"/>
+      <c r="H187" s="25"/>
       <c r="J187" s="25"/>
-      <c r="K187" s="32"/>
-      <c r="L187" s="25"/>
+      <c r="K187" s="25"/>
+      <c r="L187" s="32"/>
       <c r="M187" s="25"/>
-    </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B188" s="24"/>
-      <c r="G188" s="25"/>
-      <c r="I188" s="25"/>
+      <c r="N187" s="25"/>
+    </row>
+    <row r="188" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C188" s="24"/>
+      <c r="H188" s="25"/>
       <c r="J188" s="25"/>
-      <c r="K188" s="32"/>
-      <c r="L188" s="25"/>
+      <c r="K188" s="25"/>
+      <c r="L188" s="32"/>
       <c r="M188" s="25"/>
-    </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B189" s="24"/>
-      <c r="G189" s="25"/>
-      <c r="I189" s="25"/>
+      <c r="N188" s="25"/>
+    </row>
+    <row r="189" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C189" s="24"/>
+      <c r="H189" s="25"/>
       <c r="J189" s="25"/>
-      <c r="K189" s="32"/>
-      <c r="L189" s="25"/>
+      <c r="K189" s="25"/>
+      <c r="L189" s="32"/>
       <c r="M189" s="25"/>
-    </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B190" s="24"/>
-      <c r="G190" s="25"/>
-      <c r="I190" s="25"/>
+      <c r="N189" s="25"/>
+    </row>
+    <row r="190" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C190" s="24"/>
+      <c r="H190" s="25"/>
       <c r="J190" s="25"/>
-      <c r="K190" s="32"/>
-      <c r="L190" s="25"/>
+      <c r="K190" s="25"/>
+      <c r="L190" s="32"/>
       <c r="M190" s="25"/>
-    </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B191" s="24"/>
-      <c r="G191" s="25"/>
-      <c r="I191" s="25"/>
+      <c r="N190" s="25"/>
+    </row>
+    <row r="191" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C191" s="24"/>
+      <c r="H191" s="25"/>
       <c r="J191" s="25"/>
-      <c r="K191" s="32"/>
-      <c r="L191" s="25"/>
+      <c r="K191" s="25"/>
+      <c r="L191" s="32"/>
       <c r="M191" s="25"/>
-    </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B192" s="24"/>
-      <c r="G192" s="25"/>
-      <c r="I192" s="25"/>
+      <c r="N191" s="25"/>
+    </row>
+    <row r="192" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C192" s="24"/>
+      <c r="H192" s="25"/>
       <c r="J192" s="25"/>
-      <c r="K192" s="32"/>
-      <c r="L192" s="25"/>
+      <c r="K192" s="25"/>
+      <c r="L192" s="32"/>
       <c r="M192" s="25"/>
-    </row>
-    <row r="193" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B193" s="24"/>
-      <c r="G193" s="25"/>
-      <c r="I193" s="25"/>
+      <c r="N192" s="25"/>
+    </row>
+    <row r="193" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C193" s="24"/>
+      <c r="H193" s="25"/>
       <c r="J193" s="25"/>
-      <c r="K193" s="32"/>
-      <c r="L193" s="25"/>
+      <c r="K193" s="25"/>
+      <c r="L193" s="32"/>
       <c r="M193" s="25"/>
-    </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B194" s="24"/>
-      <c r="G194" s="25"/>
-      <c r="I194" s="25"/>
+      <c r="N193" s="25"/>
+    </row>
+    <row r="194" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C194" s="24"/>
+      <c r="H194" s="25"/>
       <c r="J194" s="25"/>
-      <c r="K194" s="32"/>
-      <c r="L194" s="25"/>
+      <c r="K194" s="25"/>
+      <c r="L194" s="32"/>
       <c r="M194" s="25"/>
-    </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B195" s="24"/>
-      <c r="G195" s="25"/>
-      <c r="I195" s="25"/>
+      <c r="N194" s="25"/>
+    </row>
+    <row r="195" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C195" s="24"/>
+      <c r="H195" s="25"/>
       <c r="J195" s="25"/>
-      <c r="K195" s="32"/>
-      <c r="L195" s="25"/>
+      <c r="K195" s="25"/>
+      <c r="L195" s="32"/>
       <c r="M195" s="25"/>
-    </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B196" s="24"/>
-      <c r="G196" s="25"/>
-      <c r="I196" s="25"/>
+      <c r="N195" s="25"/>
+    </row>
+    <row r="196" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C196" s="24"/>
+      <c r="H196" s="25"/>
       <c r="J196" s="25"/>
-      <c r="K196" s="32"/>
-      <c r="L196" s="25"/>
+      <c r="K196" s="25"/>
+      <c r="L196" s="32"/>
       <c r="M196" s="25"/>
-    </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B197" s="24"/>
-      <c r="G197" s="25"/>
-      <c r="I197" s="25"/>
+      <c r="N196" s="25"/>
+    </row>
+    <row r="197" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C197" s="24"/>
+      <c r="H197" s="25"/>
       <c r="J197" s="25"/>
-      <c r="K197" s="32"/>
-      <c r="L197" s="25"/>
+      <c r="K197" s="25"/>
+      <c r="L197" s="32"/>
       <c r="M197" s="25"/>
-    </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B198" s="24"/>
-      <c r="G198" s="25"/>
-      <c r="I198" s="25"/>
+      <c r="N197" s="25"/>
+    </row>
+    <row r="198" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C198" s="24"/>
+      <c r="H198" s="25"/>
       <c r="J198" s="25"/>
-      <c r="K198" s="32"/>
-      <c r="L198" s="25"/>
+      <c r="K198" s="25"/>
+      <c r="L198" s="32"/>
       <c r="M198" s="25"/>
-    </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B199" s="24"/>
-      <c r="G199" s="25"/>
-      <c r="I199" s="25"/>
+      <c r="N198" s="25"/>
+    </row>
+    <row r="199" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C199" s="24"/>
+      <c r="H199" s="25"/>
       <c r="J199" s="25"/>
-      <c r="K199" s="32"/>
-      <c r="L199" s="25"/>
+      <c r="K199" s="25"/>
+      <c r="L199" s="32"/>
       <c r="M199" s="25"/>
-    </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B200" s="24"/>
-      <c r="G200" s="25"/>
-      <c r="I200" s="25"/>
+      <c r="N199" s="25"/>
+    </row>
+    <row r="200" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C200" s="24"/>
+      <c r="H200" s="25"/>
       <c r="J200" s="25"/>
-      <c r="K200" s="32"/>
-      <c r="L200" s="25"/>
+      <c r="K200" s="25"/>
+      <c r="L200" s="32"/>
       <c r="M200" s="25"/>
-    </row>
-    <row r="201" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B201" s="24"/>
-      <c r="G201" s="25"/>
-      <c r="I201" s="25"/>
+      <c r="N200" s="25"/>
+    </row>
+    <row r="201" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C201" s="24"/>
+      <c r="H201" s="25"/>
       <c r="J201" s="25"/>
-      <c r="K201" s="32"/>
-      <c r="L201" s="25"/>
+      <c r="K201" s="25"/>
+      <c r="L201" s="32"/>
       <c r="M201" s="25"/>
-    </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B202" s="24"/>
-      <c r="G202" s="25"/>
-      <c r="I202" s="25"/>
+      <c r="N201" s="25"/>
+    </row>
+    <row r="202" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C202" s="24"/>
+      <c r="H202" s="25"/>
       <c r="J202" s="25"/>
-      <c r="K202" s="32"/>
-      <c r="L202" s="25"/>
+      <c r="K202" s="25"/>
+      <c r="L202" s="32"/>
       <c r="M202" s="25"/>
-    </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B203" s="24"/>
-      <c r="G203" s="25"/>
-      <c r="I203" s="25"/>
+      <c r="N202" s="25"/>
+    </row>
+    <row r="203" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C203" s="24"/>
+      <c r="H203" s="25"/>
       <c r="J203" s="25"/>
-      <c r="K203" s="32"/>
-      <c r="L203" s="25"/>
+      <c r="K203" s="25"/>
+      <c r="L203" s="32"/>
       <c r="M203" s="25"/>
-    </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B204" s="24"/>
-      <c r="G204" s="25"/>
-      <c r="I204" s="25"/>
+      <c r="N203" s="25"/>
+    </row>
+    <row r="204" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C204" s="24"/>
+      <c r="H204" s="25"/>
       <c r="J204" s="25"/>
-      <c r="K204" s="32"/>
-      <c r="L204" s="25"/>
+      <c r="K204" s="25"/>
+      <c r="L204" s="32"/>
       <c r="M204" s="25"/>
-    </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B205" s="24"/>
-      <c r="G205" s="25"/>
-      <c r="I205" s="25"/>
+      <c r="N204" s="25"/>
+    </row>
+    <row r="205" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C205" s="24"/>
+      <c r="H205" s="25"/>
       <c r="J205" s="25"/>
-      <c r="K205" s="32"/>
-      <c r="L205" s="25"/>
+      <c r="K205" s="25"/>
+      <c r="L205" s="32"/>
       <c r="M205" s="25"/>
-    </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B206" s="24"/>
-      <c r="G206" s="25"/>
-      <c r="I206" s="25"/>
+      <c r="N205" s="25"/>
+    </row>
+    <row r="206" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C206" s="24"/>
+      <c r="H206" s="25"/>
       <c r="J206" s="25"/>
-      <c r="K206" s="32"/>
-      <c r="L206" s="25"/>
+      <c r="K206" s="25"/>
+      <c r="L206" s="32"/>
       <c r="M206" s="25"/>
-    </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B207" s="24"/>
-      <c r="G207" s="25"/>
-      <c r="I207" s="25"/>
+      <c r="N206" s="25"/>
+    </row>
+    <row r="207" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C207" s="24"/>
+      <c r="H207" s="25"/>
       <c r="J207" s="25"/>
-      <c r="K207" s="32"/>
-      <c r="L207" s="25"/>
+      <c r="K207" s="25"/>
+      <c r="L207" s="32"/>
       <c r="M207" s="25"/>
-    </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B208" s="24"/>
-      <c r="G208" s="25"/>
-      <c r="I208" s="25"/>
+      <c r="N207" s="25"/>
+    </row>
+    <row r="208" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C208" s="24"/>
+      <c r="H208" s="25"/>
       <c r="J208" s="25"/>
-      <c r="K208" s="32"/>
-      <c r="L208" s="25"/>
+      <c r="K208" s="25"/>
+      <c r="L208" s="32"/>
       <c r="M208" s="25"/>
-    </row>
-    <row r="209" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B209" s="24"/>
-      <c r="G209" s="25"/>
-      <c r="I209" s="25"/>
+      <c r="N208" s="25"/>
+    </row>
+    <row r="209" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C209" s="24"/>
+      <c r="H209" s="25"/>
       <c r="J209" s="25"/>
-      <c r="K209" s="32"/>
-      <c r="L209" s="25"/>
+      <c r="K209" s="25"/>
+      <c r="L209" s="32"/>
       <c r="M209" s="25"/>
-    </row>
-    <row r="210" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B210" s="24"/>
-      <c r="G210" s="25"/>
-      <c r="I210" s="25"/>
+      <c r="N209" s="25"/>
+    </row>
+    <row r="210" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C210" s="24"/>
+      <c r="H210" s="25"/>
       <c r="J210" s="25"/>
-      <c r="K210" s="32"/>
-      <c r="L210" s="25"/>
+      <c r="K210" s="25"/>
+      <c r="L210" s="32"/>
       <c r="M210" s="25"/>
-    </row>
-    <row r="211" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B211" s="24"/>
-      <c r="G211" s="25"/>
-      <c r="I211" s="25"/>
+      <c r="N210" s="25"/>
+    </row>
+    <row r="211" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C211" s="24"/>
+      <c r="H211" s="25"/>
       <c r="J211" s="25"/>
-      <c r="K211" s="32"/>
-      <c r="L211" s="25"/>
+      <c r="K211" s="25"/>
+      <c r="L211" s="32"/>
       <c r="M211" s="25"/>
-    </row>
-    <row r="212" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B212" s="24"/>
-      <c r="G212" s="25"/>
-      <c r="I212" s="25"/>
+      <c r="N211" s="25"/>
+    </row>
+    <row r="212" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C212" s="24"/>
+      <c r="H212" s="25"/>
       <c r="J212" s="25"/>
-      <c r="K212" s="32"/>
-      <c r="L212" s="25"/>
+      <c r="K212" s="25"/>
+      <c r="L212" s="32"/>
       <c r="M212" s="25"/>
-    </row>
-    <row r="213" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B213" s="24"/>
-      <c r="G213" s="25"/>
-      <c r="I213" s="25"/>
+      <c r="N212" s="25"/>
+    </row>
+    <row r="213" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C213" s="24"/>
+      <c r="H213" s="25"/>
       <c r="J213" s="25"/>
-      <c r="K213" s="32"/>
-      <c r="L213" s="25"/>
+      <c r="K213" s="25"/>
+      <c r="L213" s="32"/>
       <c r="M213" s="25"/>
-    </row>
-    <row r="214" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B214" s="24"/>
-      <c r="G214" s="25"/>
-      <c r="I214" s="25"/>
+      <c r="N213" s="25"/>
+    </row>
+    <row r="214" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C214" s="24"/>
+      <c r="H214" s="25"/>
       <c r="J214" s="25"/>
-      <c r="K214" s="32"/>
-      <c r="L214" s="25"/>
+      <c r="K214" s="25"/>
+      <c r="L214" s="32"/>
       <c r="M214" s="25"/>
-    </row>
-    <row r="215" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B215" s="24"/>
-      <c r="G215" s="25"/>
-      <c r="I215" s="25"/>
+      <c r="N214" s="25"/>
+    </row>
+    <row r="215" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C215" s="24"/>
+      <c r="H215" s="25"/>
       <c r="J215" s="25"/>
-      <c r="K215" s="32"/>
-      <c r="L215" s="25"/>
+      <c r="K215" s="25"/>
+      <c r="L215" s="32"/>
       <c r="M215" s="25"/>
-    </row>
-    <row r="216" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B216" s="24"/>
-      <c r="G216" s="25"/>
-      <c r="I216" s="25"/>
+      <c r="N215" s="25"/>
+    </row>
+    <row r="216" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C216" s="24"/>
+      <c r="H216" s="25"/>
       <c r="J216" s="25"/>
-      <c r="K216" s="32"/>
-      <c r="L216" s="25"/>
+      <c r="K216" s="25"/>
+      <c r="L216" s="32"/>
       <c r="M216" s="25"/>
-    </row>
-    <row r="217" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B217" s="24"/>
-      <c r="G217" s="25"/>
-      <c r="I217" s="25"/>
+      <c r="N216" s="25"/>
+    </row>
+    <row r="217" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C217" s="24"/>
+      <c r="H217" s="25"/>
       <c r="J217" s="25"/>
-      <c r="K217" s="32"/>
-      <c r="L217" s="25"/>
+      <c r="K217" s="25"/>
+      <c r="L217" s="32"/>
       <c r="M217" s="25"/>
-    </row>
-    <row r="218" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B218" s="24"/>
-      <c r="G218" s="25"/>
-      <c r="I218" s="25"/>
+      <c r="N217" s="25"/>
+    </row>
+    <row r="218" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C218" s="24"/>
+      <c r="H218" s="25"/>
       <c r="J218" s="25"/>
-      <c r="K218" s="32"/>
-      <c r="L218" s="25"/>
+      <c r="K218" s="25"/>
+      <c r="L218" s="32"/>
       <c r="M218" s="25"/>
-    </row>
-    <row r="219" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B219" s="24"/>
-      <c r="G219" s="25"/>
-      <c r="I219" s="25"/>
+      <c r="N218" s="25"/>
+    </row>
+    <row r="219" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C219" s="24"/>
+      <c r="H219" s="25"/>
       <c r="J219" s="25"/>
-      <c r="K219" s="32"/>
-      <c r="L219" s="25"/>
+      <c r="K219" s="25"/>
+      <c r="L219" s="32"/>
       <c r="M219" s="25"/>
-    </row>
-    <row r="220" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B220" s="24"/>
-      <c r="G220" s="25"/>
-      <c r="I220" s="25"/>
+      <c r="N219" s="25"/>
+    </row>
+    <row r="220" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C220" s="24"/>
+      <c r="H220" s="25"/>
       <c r="J220" s="25"/>
-      <c r="K220" s="32"/>
-      <c r="L220" s="25"/>
+      <c r="K220" s="25"/>
+      <c r="L220" s="32"/>
       <c r="M220" s="25"/>
-    </row>
-    <row r="221" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B221" s="24"/>
-      <c r="G221" s="25"/>
-      <c r="I221" s="25"/>
+      <c r="N220" s="25"/>
+    </row>
+    <row r="221" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C221" s="24"/>
+      <c r="H221" s="25"/>
       <c r="J221" s="25"/>
-      <c r="K221" s="32"/>
-      <c r="L221" s="25"/>
+      <c r="K221" s="25"/>
+      <c r="L221" s="32"/>
       <c r="M221" s="25"/>
-    </row>
-    <row r="222" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B222" s="24"/>
-      <c r="G222" s="25"/>
-      <c r="I222" s="25"/>
+      <c r="N221" s="25"/>
+    </row>
+    <row r="222" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C222" s="24"/>
+      <c r="H222" s="25"/>
       <c r="J222" s="25"/>
-      <c r="K222" s="32"/>
-      <c r="L222" s="25"/>
+      <c r="K222" s="25"/>
+      <c r="L222" s="32"/>
       <c r="M222" s="25"/>
-    </row>
-    <row r="223" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B223" s="24"/>
-      <c r="G223" s="25"/>
-      <c r="I223" s="25"/>
+      <c r="N222" s="25"/>
+    </row>
+    <row r="223" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C223" s="24"/>
+      <c r="H223" s="25"/>
       <c r="J223" s="25"/>
-      <c r="K223" s="32"/>
-      <c r="L223" s="25"/>
+      <c r="K223" s="25"/>
+      <c r="L223" s="32"/>
       <c r="M223" s="25"/>
-    </row>
-    <row r="224" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B224" s="24"/>
-      <c r="G224" s="25"/>
-      <c r="I224" s="25"/>
+      <c r="N223" s="25"/>
+    </row>
+    <row r="224" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C224" s="24"/>
+      <c r="H224" s="25"/>
       <c r="J224" s="25"/>
-      <c r="K224" s="32"/>
-      <c r="L224" s="25"/>
+      <c r="K224" s="25"/>
+      <c r="L224" s="32"/>
       <c r="M224" s="25"/>
-    </row>
-    <row r="225" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B225" s="24"/>
-      <c r="G225" s="25"/>
-      <c r="I225" s="25"/>
+      <c r="N224" s="25"/>
+    </row>
+    <row r="225" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C225" s="24"/>
+      <c r="H225" s="25"/>
       <c r="J225" s="25"/>
-      <c r="K225" s="32"/>
-      <c r="L225" s="25"/>
+      <c r="K225" s="25"/>
+      <c r="L225" s="32"/>
       <c r="M225" s="25"/>
-    </row>
-    <row r="226" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B226" s="24"/>
-      <c r="G226" s="25"/>
-      <c r="I226" s="25"/>
+      <c r="N225" s="25"/>
+    </row>
+    <row r="226" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C226" s="24"/>
+      <c r="H226" s="25"/>
       <c r="J226" s="25"/>
-      <c r="K226" s="32"/>
-      <c r="L226" s="25"/>
+      <c r="K226" s="25"/>
+      <c r="L226" s="32"/>
       <c r="M226" s="25"/>
-    </row>
-    <row r="227" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B227" s="24"/>
-      <c r="G227" s="25"/>
-      <c r="I227" s="25"/>
+      <c r="N226" s="25"/>
+    </row>
+    <row r="227" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C227" s="24"/>
+      <c r="H227" s="25"/>
       <c r="J227" s="25"/>
-      <c r="K227" s="32"/>
-      <c r="L227" s="25"/>
+      <c r="K227" s="25"/>
+      <c r="L227" s="32"/>
       <c r="M227" s="25"/>
-    </row>
-    <row r="228" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B228" s="24"/>
-      <c r="G228" s="25"/>
-      <c r="I228" s="25"/>
+      <c r="N227" s="25"/>
+    </row>
+    <row r="228" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C228" s="24"/>
+      <c r="H228" s="25"/>
       <c r="J228" s="25"/>
-      <c r="K228" s="32"/>
-      <c r="L228" s="25"/>
+      <c r="K228" s="25"/>
+      <c r="L228" s="32"/>
       <c r="M228" s="25"/>
-    </row>
-    <row r="229" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B229" s="24"/>
-      <c r="G229" s="25"/>
-      <c r="I229" s="25"/>
+      <c r="N228" s="25"/>
+    </row>
+    <row r="229" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C229" s="24"/>
+      <c r="H229" s="25"/>
       <c r="J229" s="25"/>
-      <c r="K229" s="32"/>
-      <c r="L229" s="25"/>
+      <c r="K229" s="25"/>
+      <c r="L229" s="32"/>
       <c r="M229" s="25"/>
-    </row>
-    <row r="230" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B230" s="24"/>
-      <c r="G230" s="25"/>
-      <c r="I230" s="25"/>
+      <c r="N229" s="25"/>
+    </row>
+    <row r="230" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C230" s="24"/>
+      <c r="H230" s="25"/>
       <c r="J230" s="25"/>
-      <c r="K230" s="32"/>
-      <c r="L230" s="25"/>
+      <c r="K230" s="25"/>
+      <c r="L230" s="32"/>
       <c r="M230" s="25"/>
-    </row>
-    <row r="231" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B231" s="24"/>
-      <c r="G231" s="25"/>
-      <c r="I231" s="25"/>
+      <c r="N230" s="25"/>
+    </row>
+    <row r="231" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C231" s="24"/>
+      <c r="H231" s="25"/>
       <c r="J231" s="25"/>
-      <c r="K231" s="32"/>
-      <c r="L231" s="25"/>
+      <c r="K231" s="25"/>
+      <c r="L231" s="32"/>
       <c r="M231" s="25"/>
-    </row>
-    <row r="232" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B232" s="24"/>
-      <c r="G232" s="25"/>
-      <c r="I232" s="25"/>
+      <c r="N231" s="25"/>
+    </row>
+    <row r="232" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C232" s="24"/>
+      <c r="H232" s="25"/>
       <c r="J232" s="25"/>
-      <c r="K232" s="32"/>
-      <c r="L232" s="25"/>
+      <c r="K232" s="25"/>
+      <c r="L232" s="32"/>
       <c r="M232" s="25"/>
-    </row>
-    <row r="233" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B233" s="24"/>
-      <c r="G233" s="25"/>
-      <c r="I233" s="25"/>
+      <c r="N232" s="25"/>
+    </row>
+    <row r="233" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C233" s="24"/>
+      <c r="H233" s="25"/>
       <c r="J233" s="25"/>
-      <c r="K233" s="32"/>
-      <c r="L233" s="25"/>
+      <c r="K233" s="25"/>
+      <c r="L233" s="32"/>
       <c r="M233" s="25"/>
-    </row>
-    <row r="234" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B234" s="24"/>
-      <c r="G234" s="25"/>
-      <c r="I234" s="25"/>
+      <c r="N233" s="25"/>
+    </row>
+    <row r="234" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C234" s="24"/>
+      <c r="H234" s="25"/>
       <c r="J234" s="25"/>
-      <c r="K234" s="32"/>
-      <c r="L234" s="25"/>
+      <c r="K234" s="25"/>
+      <c r="L234" s="32"/>
       <c r="M234" s="25"/>
-    </row>
-    <row r="235" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B235" s="24"/>
-      <c r="G235" s="25"/>
-      <c r="I235" s="25"/>
+      <c r="N234" s="25"/>
+    </row>
+    <row r="235" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C235" s="24"/>
+      <c r="H235" s="25"/>
       <c r="J235" s="25"/>
-      <c r="K235" s="32"/>
-      <c r="L235" s="25"/>
+      <c r="K235" s="25"/>
+      <c r="L235" s="32"/>
       <c r="M235" s="25"/>
-    </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B236" s="24"/>
-      <c r="G236" s="25"/>
-      <c r="I236" s="25"/>
+      <c r="N235" s="25"/>
+    </row>
+    <row r="236" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C236" s="24"/>
+      <c r="H236" s="25"/>
       <c r="J236" s="25"/>
-      <c r="K236" s="32"/>
-      <c r="L236" s="25"/>
+      <c r="K236" s="25"/>
+      <c r="L236" s="32"/>
       <c r="M236" s="25"/>
-    </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B237" s="24"/>
-      <c r="G237" s="25"/>
-      <c r="I237" s="25"/>
+      <c r="N236" s="25"/>
+    </row>
+    <row r="237" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C237" s="24"/>
+      <c r="H237" s="25"/>
       <c r="J237" s="25"/>
-      <c r="K237" s="32"/>
-      <c r="L237" s="25"/>
+      <c r="K237" s="25"/>
+      <c r="L237" s="32"/>
       <c r="M237" s="25"/>
-    </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B238" s="24"/>
-      <c r="G238" s="25"/>
-      <c r="I238" s="25"/>
+      <c r="N237" s="25"/>
+    </row>
+    <row r="238" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C238" s="24"/>
+      <c r="H238" s="25"/>
       <c r="J238" s="25"/>
-      <c r="K238" s="32"/>
-      <c r="L238" s="25"/>
+      <c r="K238" s="25"/>
+      <c r="L238" s="32"/>
       <c r="M238" s="25"/>
-    </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B239" s="24"/>
-      <c r="G239" s="25"/>
-      <c r="I239" s="25"/>
+      <c r="N238" s="25"/>
+    </row>
+    <row r="239" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C239" s="24"/>
+      <c r="H239" s="25"/>
       <c r="J239" s="25"/>
-      <c r="K239" s="32"/>
-      <c r="L239" s="25"/>
+      <c r="K239" s="25"/>
+      <c r="L239" s="32"/>
       <c r="M239" s="25"/>
-    </row>
-    <row r="240" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B240" s="24"/>
-      <c r="G240" s="25"/>
-      <c r="I240" s="25"/>
+      <c r="N239" s="25"/>
+    </row>
+    <row r="240" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C240" s="24"/>
+      <c r="H240" s="25"/>
       <c r="J240" s="25"/>
-      <c r="K240" s="32"/>
-      <c r="L240" s="25"/>
+      <c r="K240" s="25"/>
+      <c r="L240" s="32"/>
       <c r="M240" s="25"/>
-    </row>
-    <row r="241" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B241" s="24"/>
-      <c r="G241" s="25"/>
-      <c r="I241" s="25"/>
+      <c r="N240" s="25"/>
+    </row>
+    <row r="241" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C241" s="24"/>
+      <c r="H241" s="25"/>
       <c r="J241" s="25"/>
-      <c r="K241" s="32"/>
-      <c r="L241" s="25"/>
+      <c r="K241" s="25"/>
+      <c r="L241" s="32"/>
       <c r="M241" s="25"/>
-    </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B242" s="24"/>
-      <c r="G242" s="25"/>
-      <c r="I242" s="25"/>
+      <c r="N241" s="25"/>
+    </row>
+    <row r="242" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C242" s="24"/>
+      <c r="H242" s="25"/>
       <c r="J242" s="25"/>
-      <c r="K242" s="32"/>
-      <c r="L242" s="25"/>
+      <c r="K242" s="25"/>
+      <c r="L242" s="32"/>
       <c r="M242" s="25"/>
-    </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B243" s="24"/>
-      <c r="G243" s="25"/>
-      <c r="I243" s="25"/>
+      <c r="N242" s="25"/>
+    </row>
+    <row r="243" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C243" s="24"/>
+      <c r="H243" s="25"/>
       <c r="J243" s="25"/>
-      <c r="K243" s="32"/>
-      <c r="L243" s="25"/>
+      <c r="K243" s="25"/>
+      <c r="L243" s="32"/>
       <c r="M243" s="25"/>
-    </row>
-    <row r="244" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B244" s="24"/>
-      <c r="G244" s="25"/>
-      <c r="I244" s="25"/>
+      <c r="N243" s="25"/>
+    </row>
+    <row r="244" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C244" s="24"/>
+      <c r="H244" s="25"/>
       <c r="J244" s="25"/>
-      <c r="K244" s="32"/>
-      <c r="L244" s="25"/>
+      <c r="K244" s="25"/>
+      <c r="L244" s="32"/>
       <c r="M244" s="25"/>
-    </row>
-    <row r="245" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B245" s="24"/>
-      <c r="G245" s="25"/>
-      <c r="I245" s="25"/>
+      <c r="N244" s="25"/>
+    </row>
+    <row r="245" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C245" s="24"/>
+      <c r="H245" s="25"/>
       <c r="J245" s="25"/>
-      <c r="K245" s="32"/>
-      <c r="L245" s="25"/>
+      <c r="K245" s="25"/>
+      <c r="L245" s="32"/>
       <c r="M245" s="25"/>
-    </row>
-    <row r="246" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B246" s="24"/>
-      <c r="G246" s="25"/>
-      <c r="I246" s="25"/>
+      <c r="N245" s="25"/>
+    </row>
+    <row r="246" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C246" s="24"/>
+      <c r="H246" s="25"/>
       <c r="J246" s="25"/>
-      <c r="K246" s="32"/>
-      <c r="L246" s="25"/>
+      <c r="K246" s="25"/>
+      <c r="L246" s="32"/>
       <c r="M246" s="25"/>
-    </row>
-    <row r="247" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B247" s="24"/>
-      <c r="G247" s="25"/>
-      <c r="I247" s="25"/>
+      <c r="N246" s="25"/>
+    </row>
+    <row r="247" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C247" s="24"/>
+      <c r="H247" s="25"/>
       <c r="J247" s="25"/>
-      <c r="K247" s="32"/>
-      <c r="L247" s="25"/>
+      <c r="K247" s="25"/>
+      <c r="L247" s="32"/>
       <c r="M247" s="25"/>
-    </row>
-    <row r="248" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B248" s="24"/>
-      <c r="G248" s="25"/>
-      <c r="I248" s="25"/>
+      <c r="N247" s="25"/>
+    </row>
+    <row r="248" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C248" s="24"/>
+      <c r="H248" s="25"/>
       <c r="J248" s="25"/>
-      <c r="K248" s="32"/>
-      <c r="L248" s="25"/>
+      <c r="K248" s="25"/>
+      <c r="L248" s="32"/>
       <c r="M248" s="25"/>
-    </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B249" s="24"/>
-      <c r="G249" s="25"/>
-      <c r="I249" s="25"/>
+      <c r="N248" s="25"/>
+    </row>
+    <row r="249" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C249" s="24"/>
+      <c r="H249" s="25"/>
       <c r="J249" s="25"/>
-      <c r="K249" s="32"/>
-      <c r="L249" s="25"/>
+      <c r="K249" s="25"/>
+      <c r="L249" s="32"/>
       <c r="M249" s="25"/>
-    </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B250" s="24"/>
-      <c r="G250" s="25"/>
-      <c r="I250" s="25"/>
+      <c r="N249" s="25"/>
+    </row>
+    <row r="250" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C250" s="24"/>
+      <c r="H250" s="25"/>
       <c r="J250" s="25"/>
-      <c r="K250" s="32"/>
-      <c r="L250" s="25"/>
+      <c r="K250" s="25"/>
+      <c r="L250" s="32"/>
       <c r="M250" s="25"/>
-    </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B251" s="24"/>
-      <c r="G251" s="25"/>
-      <c r="I251" s="25"/>
+      <c r="N250" s="25"/>
+    </row>
+    <row r="251" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C251" s="24"/>
+      <c r="H251" s="25"/>
       <c r="J251" s="25"/>
-      <c r="K251" s="32"/>
-      <c r="L251" s="25"/>
+      <c r="K251" s="25"/>
+      <c r="L251" s="32"/>
       <c r="M251" s="25"/>
-    </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B252" s="24"/>
-      <c r="G252" s="25"/>
-      <c r="I252" s="25"/>
+      <c r="N251" s="25"/>
+    </row>
+    <row r="252" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C252" s="24"/>
+      <c r="H252" s="25"/>
       <c r="J252" s="25"/>
-      <c r="K252" s="32"/>
-      <c r="L252" s="25"/>
+      <c r="K252" s="25"/>
+      <c r="L252" s="32"/>
       <c r="M252" s="25"/>
-    </row>
-    <row r="253" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B253" s="24"/>
-      <c r="G253" s="25"/>
-      <c r="I253" s="25"/>
+      <c r="N252" s="25"/>
+    </row>
+    <row r="253" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C253" s="24"/>
+      <c r="H253" s="25"/>
       <c r="J253" s="25"/>
-      <c r="K253" s="32"/>
-      <c r="L253" s="25"/>
+      <c r="K253" s="25"/>
+      <c r="L253" s="32"/>
       <c r="M253" s="25"/>
-    </row>
-    <row r="254" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B254" s="24"/>
-      <c r="G254" s="25"/>
-      <c r="I254" s="25"/>
+      <c r="N253" s="25"/>
+    </row>
+    <row r="254" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C254" s="24"/>
+      <c r="H254" s="25"/>
       <c r="J254" s="25"/>
-      <c r="K254" s="32"/>
-      <c r="L254" s="25"/>
+      <c r="K254" s="25"/>
+      <c r="L254" s="32"/>
       <c r="M254" s="25"/>
-    </row>
-    <row r="255" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B255" s="24"/>
-      <c r="G255" s="25"/>
-      <c r="I255" s="25"/>
+      <c r="N254" s="25"/>
+    </row>
+    <row r="255" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C255" s="24"/>
+      <c r="H255" s="25"/>
       <c r="J255" s="25"/>
-      <c r="K255" s="32"/>
-      <c r="L255" s="25"/>
+      <c r="K255" s="25"/>
+      <c r="L255" s="32"/>
       <c r="M255" s="25"/>
-    </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B256" s="24"/>
-      <c r="G256" s="25"/>
-      <c r="I256" s="25"/>
+      <c r="N255" s="25"/>
+    </row>
+    <row r="256" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C256" s="24"/>
+      <c r="H256" s="25"/>
       <c r="J256" s="25"/>
-      <c r="K256" s="32"/>
-      <c r="L256" s="25"/>
+      <c r="K256" s="25"/>
+      <c r="L256" s="32"/>
       <c r="M256" s="25"/>
-    </row>
-    <row r="257" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B257" s="24"/>
-      <c r="G257" s="25"/>
-      <c r="I257" s="25"/>
+      <c r="N256" s="25"/>
+    </row>
+    <row r="257" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C257" s="24"/>
+      <c r="H257" s="25"/>
       <c r="J257" s="25"/>
-      <c r="K257" s="32"/>
-      <c r="L257" s="25"/>
+      <c r="K257" s="25"/>
+      <c r="L257" s="32"/>
       <c r="M257" s="25"/>
-    </row>
-    <row r="258" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B258" s="24"/>
-      <c r="G258" s="25"/>
-      <c r="I258" s="25"/>
+      <c r="N257" s="25"/>
+    </row>
+    <row r="258" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C258" s="24"/>
+      <c r="H258" s="25"/>
       <c r="J258" s="25"/>
-      <c r="K258" s="32"/>
-      <c r="L258" s="25"/>
+      <c r="K258" s="25"/>
+      <c r="L258" s="32"/>
       <c r="M258" s="25"/>
-    </row>
-    <row r="259" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B259" s="24"/>
-      <c r="G259" s="25"/>
-      <c r="I259" s="25"/>
+      <c r="N258" s="25"/>
+    </row>
+    <row r="259" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C259" s="24"/>
+      <c r="H259" s="25"/>
       <c r="J259" s="25"/>
-      <c r="K259" s="32"/>
-      <c r="L259" s="25"/>
+      <c r="K259" s="25"/>
+      <c r="L259" s="32"/>
       <c r="M259" s="25"/>
-    </row>
-    <row r="260" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B260" s="24"/>
-      <c r="G260" s="25"/>
-      <c r="I260" s="25"/>
+      <c r="N259" s="25"/>
+    </row>
+    <row r="260" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C260" s="24"/>
+      <c r="H260" s="25"/>
       <c r="J260" s="25"/>
-      <c r="K260" s="32"/>
-      <c r="L260" s="25"/>
+      <c r="K260" s="25"/>
+      <c r="L260" s="32"/>
       <c r="M260" s="25"/>
-    </row>
-    <row r="261" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B261" s="24"/>
-      <c r="G261" s="25"/>
-      <c r="I261" s="25"/>
+      <c r="N260" s="25"/>
+    </row>
+    <row r="261" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C261" s="24"/>
+      <c r="H261" s="25"/>
       <c r="J261" s="25"/>
-      <c r="K261" s="32"/>
-      <c r="L261" s="25"/>
+      <c r="K261" s="25"/>
+      <c r="L261" s="32"/>
       <c r="M261" s="25"/>
-    </row>
-    <row r="262" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B262" s="24"/>
-      <c r="G262" s="25"/>
-      <c r="I262" s="25"/>
+      <c r="N261" s="25"/>
+    </row>
+    <row r="262" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C262" s="24"/>
+      <c r="H262" s="25"/>
       <c r="J262" s="25"/>
-      <c r="K262" s="32"/>
-      <c r="L262" s="25"/>
+      <c r="K262" s="25"/>
+      <c r="L262" s="32"/>
       <c r="M262" s="25"/>
-    </row>
-    <row r="263" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B263" s="24"/>
-      <c r="G263" s="25"/>
-      <c r="I263" s="25"/>
+      <c r="N262" s="25"/>
+    </row>
+    <row r="263" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C263" s="24"/>
+      <c r="H263" s="25"/>
       <c r="J263" s="25"/>
-      <c r="K263" s="32"/>
-      <c r="L263" s="25"/>
+      <c r="K263" s="25"/>
+      <c r="L263" s="32"/>
       <c r="M263" s="25"/>
-    </row>
-    <row r="264" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B264" s="24"/>
-      <c r="G264" s="25"/>
-      <c r="I264" s="25"/>
+      <c r="N263" s="25"/>
+    </row>
+    <row r="264" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C264" s="24"/>
+      <c r="H264" s="25"/>
       <c r="J264" s="25"/>
-      <c r="K264" s="32"/>
-      <c r="L264" s="25"/>
+      <c r="K264" s="25"/>
+      <c r="L264" s="32"/>
       <c r="M264" s="25"/>
-    </row>
-    <row r="265" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B265" s="24"/>
-      <c r="G265" s="25"/>
-      <c r="I265" s="25"/>
+      <c r="N264" s="25"/>
+    </row>
+    <row r="265" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C265" s="24"/>
+      <c r="H265" s="25"/>
       <c r="J265" s="25"/>
-      <c r="K265" s="32"/>
-      <c r="L265" s="25"/>
+      <c r="K265" s="25"/>
+      <c r="L265" s="32"/>
       <c r="M265" s="25"/>
-    </row>
-    <row r="266" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B266" s="24"/>
-      <c r="G266" s="25"/>
-      <c r="I266" s="25"/>
+      <c r="N265" s="25"/>
+    </row>
+    <row r="266" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C266" s="24"/>
+      <c r="H266" s="25"/>
       <c r="J266" s="25"/>
-      <c r="K266" s="32"/>
-      <c r="L266" s="25"/>
+      <c r="K266" s="25"/>
+      <c r="L266" s="32"/>
       <c r="M266" s="25"/>
-    </row>
-    <row r="267" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B267" s="24"/>
-      <c r="G267" s="25"/>
-      <c r="I267" s="25"/>
+      <c r="N266" s="25"/>
+    </row>
+    <row r="267" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C267" s="24"/>
+      <c r="H267" s="25"/>
       <c r="J267" s="25"/>
-      <c r="K267" s="32"/>
-      <c r="L267" s="25"/>
+      <c r="K267" s="25"/>
+      <c r="L267" s="32"/>
       <c r="M267" s="25"/>
-    </row>
-    <row r="268" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B268" s="24"/>
-      <c r="G268" s="25"/>
-      <c r="I268" s="25"/>
+      <c r="N267" s="25"/>
+    </row>
+    <row r="268" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C268" s="24"/>
+      <c r="H268" s="25"/>
       <c r="J268" s="25"/>
-      <c r="K268" s="32"/>
-      <c r="L268" s="25"/>
+      <c r="K268" s="25"/>
+      <c r="L268" s="32"/>
       <c r="M268" s="25"/>
-    </row>
-    <row r="269" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B269" s="24"/>
-      <c r="G269" s="25"/>
-      <c r="I269" s="25"/>
+      <c r="N268" s="25"/>
+    </row>
+    <row r="269" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C269" s="24"/>
+      <c r="H269" s="25"/>
       <c r="J269" s="25"/>
-      <c r="K269" s="32"/>
-      <c r="L269" s="25"/>
+      <c r="K269" s="25"/>
+      <c r="L269" s="32"/>
       <c r="M269" s="25"/>
-    </row>
-    <row r="270" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B270" s="24"/>
-      <c r="G270" s="25"/>
-      <c r="I270" s="25"/>
+      <c r="N269" s="25"/>
+    </row>
+    <row r="270" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C270" s="24"/>
+      <c r="H270" s="25"/>
       <c r="J270" s="25"/>
-      <c r="K270" s="32"/>
-      <c r="L270" s="25"/>
+      <c r="K270" s="25"/>
+      <c r="L270" s="32"/>
       <c r="M270" s="25"/>
-    </row>
-    <row r="271" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B271" s="24"/>
-      <c r="G271" s="25"/>
-      <c r="I271" s="25"/>
+      <c r="N270" s="25"/>
+    </row>
+    <row r="271" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C271" s="24"/>
+      <c r="H271" s="25"/>
       <c r="J271" s="25"/>
-      <c r="K271" s="32"/>
-      <c r="L271" s="25"/>
+      <c r="K271" s="25"/>
+      <c r="L271" s="32"/>
       <c r="M271" s="25"/>
-    </row>
-    <row r="272" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B272" s="24"/>
-      <c r="G272" s="25"/>
-      <c r="I272" s="25"/>
+      <c r="N271" s="25"/>
+    </row>
+    <row r="272" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C272" s="24"/>
+      <c r="H272" s="25"/>
       <c r="J272" s="25"/>
-      <c r="K272" s="32"/>
-      <c r="L272" s="25"/>
+      <c r="K272" s="25"/>
+      <c r="L272" s="32"/>
       <c r="M272" s="25"/>
-    </row>
-    <row r="273" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B273" s="24"/>
-      <c r="G273" s="25"/>
-      <c r="I273" s="25"/>
+      <c r="N272" s="25"/>
+    </row>
+    <row r="273" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C273" s="24"/>
+      <c r="H273" s="25"/>
       <c r="J273" s="25"/>
-      <c r="K273" s="32"/>
-      <c r="L273" s="25"/>
+      <c r="K273" s="25"/>
+      <c r="L273" s="32"/>
       <c r="M273" s="25"/>
-    </row>
-    <row r="274" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B274" s="24"/>
-      <c r="G274" s="25"/>
-      <c r="I274" s="25"/>
+      <c r="N273" s="25"/>
+    </row>
+    <row r="274" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C274" s="24"/>
+      <c r="H274" s="25"/>
       <c r="J274" s="25"/>
-      <c r="K274" s="32"/>
-      <c r="L274" s="25"/>
+      <c r="K274" s="25"/>
+      <c r="L274" s="32"/>
       <c r="M274" s="25"/>
-    </row>
-    <row r="275" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B275" s="24"/>
-      <c r="G275" s="25"/>
-      <c r="I275" s="25"/>
+      <c r="N274" s="25"/>
+    </row>
+    <row r="275" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C275" s="24"/>
+      <c r="H275" s="25"/>
       <c r="J275" s="25"/>
-      <c r="K275" s="32"/>
-      <c r="L275" s="25"/>
+      <c r="K275" s="25"/>
+      <c r="L275" s="32"/>
       <c r="M275" s="25"/>
-    </row>
-    <row r="276" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B276" s="24"/>
-      <c r="G276" s="25"/>
-      <c r="I276" s="25"/>
+      <c r="N275" s="25"/>
+    </row>
+    <row r="276" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C276" s="24"/>
+      <c r="H276" s="25"/>
       <c r="J276" s="25"/>
-      <c r="K276" s="32"/>
-      <c r="L276" s="25"/>
+      <c r="K276" s="25"/>
+      <c r="L276" s="32"/>
       <c r="M276" s="25"/>
+      <c r="N276" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9878,4543 +9912,143 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:P276"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="66" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" style="69" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="69" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.44140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="69" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="E1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="F1" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="G1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="H1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="I1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="J1" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="K1" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="L1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="M1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="N1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="O1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="P1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="Q1" s="59" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="68">
+        <v>43952</v>
+      </c>
+      <c r="C2" s="61">
         <v>100000</v>
       </c>
-      <c r="C2" s="64">
+      <c r="D2" s="62">
         <v>50</v>
       </c>
-      <c r="D2" s="64">
+      <c r="E2" s="62">
         <v>10</v>
       </c>
-      <c r="E2" s="64">
+      <c r="F2" s="62">
         <v>2</v>
       </c>
-      <c r="F2" s="64">
+      <c r="G2" s="62">
         <v>4</v>
       </c>
-      <c r="G2" s="65">
+      <c r="H2" s="63">
         <v>0.3</v>
       </c>
-      <c r="H2" s="64">
+      <c r="I2" s="62">
         <v>14</v>
       </c>
-      <c r="I2" s="64">
+      <c r="J2" s="62">
         <v>20</v>
       </c>
-      <c r="J2" s="64">
+      <c r="K2" s="62">
         <v>3</v>
       </c>
-      <c r="K2" s="65">
+      <c r="L2" s="63">
         <v>0.02</v>
       </c>
-      <c r="L2" s="65">
+      <c r="M2" s="63">
         <v>0.03</v>
       </c>
-      <c r="M2" s="66">
+      <c r="N2" s="64">
         <v>2</v>
       </c>
-      <c r="N2" s="65">
+      <c r="O2" s="63">
         <v>0.7</v>
       </c>
-      <c r="O2" s="65">
+      <c r="P2" s="63">
         <v>0.3</v>
       </c>
-      <c r="P2" s="64">
+      <c r="Q2" s="62">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="58"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="58"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="58"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="58"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="58"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="58"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="58"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="58"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="58"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="58"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="58"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="58"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="58"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="58"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="59"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="59"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="59"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="59"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="59"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="59"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="59"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="59"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="59"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="59"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="59"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="59"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="59"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="59"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="59"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="59"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="59"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="59"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="59"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="59"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="59"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="59"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="59"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="59"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="59"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="59"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="59"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="59"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="59"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="59"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="59"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="59"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="59"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="59"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="59"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="59"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="59"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="59"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="59"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="59"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="59"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="59"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="59"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="60"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="59"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="59"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="59"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="60"/>
-      <c r="O62" s="60"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="59"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="60"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="59"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="60"/>
-      <c r="O64" s="60"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="59"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="60"/>
-      <c r="O65" s="60"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B66" s="59"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="60"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B67" s="59"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="60"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B68" s="59"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="60"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B69" s="59"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="67"/>
-      <c r="N69" s="60"/>
-      <c r="O69" s="60"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B70" s="59"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="67"/>
-      <c r="N70" s="60"/>
-      <c r="O70" s="60"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B71" s="59"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="67"/>
-      <c r="N71" s="60"/>
-      <c r="O71" s="60"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B72" s="59"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="67"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="60"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B73" s="59"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="60"/>
-      <c r="O73" s="60"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B74" s="59"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="60"/>
-      <c r="O74" s="60"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B75" s="59"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="67"/>
-      <c r="N75" s="60"/>
-      <c r="O75" s="60"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B76" s="59"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="60"/>
-      <c r="M76" s="67"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="60"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B77" s="59"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="67"/>
-      <c r="N77" s="60"/>
-      <c r="O77" s="60"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B78" s="59"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60"/>
-      <c r="M78" s="67"/>
-      <c r="N78" s="60"/>
-      <c r="O78" s="60"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B79" s="59"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="60"/>
-      <c r="O79" s="60"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B80" s="59"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="60"/>
-      <c r="M80" s="67"/>
-      <c r="N80" s="60"/>
-      <c r="O80" s="60"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B81" s="59"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="67"/>
-      <c r="N81" s="60"/>
-      <c r="O81" s="60"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B82" s="59"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="60"/>
-      <c r="M82" s="67"/>
-      <c r="N82" s="60"/>
-      <c r="O82" s="60"/>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B83" s="59"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="60"/>
-      <c r="O83" s="60"/>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B84" s="59"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="60"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="60"/>
-      <c r="O84" s="60"/>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B85" s="59"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="60"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="60"/>
-      <c r="O85" s="60"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B86" s="59"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="67"/>
-      <c r="N86" s="60"/>
-      <c r="O86" s="60"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B87" s="59"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="67"/>
-      <c r="N87" s="60"/>
-      <c r="O87" s="60"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B88" s="59"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="67"/>
-      <c r="N88" s="60"/>
-      <c r="O88" s="60"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B89" s="59"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="67"/>
-      <c r="N89" s="60"/>
-      <c r="O89" s="60"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B90" s="59"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="67"/>
-      <c r="N90" s="60"/>
-      <c r="O90" s="60"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B91" s="59"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="67"/>
-      <c r="N91" s="60"/>
-      <c r="O91" s="60"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B92" s="59"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="67"/>
-      <c r="N92" s="60"/>
-      <c r="O92" s="60"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B93" s="59"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="67"/>
-      <c r="N93" s="60"/>
-      <c r="O93" s="60"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B94" s="59"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="60"/>
-      <c r="M94" s="67"/>
-      <c r="N94" s="60"/>
-      <c r="O94" s="60"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B95" s="59"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="58"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="58"/>
-      <c r="I95" s="58"/>
-      <c r="J95" s="58"/>
-      <c r="K95" s="60"/>
-      <c r="L95" s="60"/>
-      <c r="M95" s="67"/>
-      <c r="N95" s="60"/>
-      <c r="O95" s="60"/>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B96" s="59"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="58"/>
-      <c r="J96" s="58"/>
-      <c r="K96" s="60"/>
-      <c r="L96" s="60"/>
-      <c r="M96" s="67"/>
-      <c r="N96" s="60"/>
-      <c r="O96" s="60"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B97" s="59"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="60"/>
-      <c r="H97" s="58"/>
-      <c r="I97" s="58"/>
-      <c r="J97" s="58"/>
-      <c r="K97" s="60"/>
-      <c r="L97" s="60"/>
-      <c r="M97" s="67"/>
-      <c r="N97" s="60"/>
-      <c r="O97" s="60"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B98" s="59"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="58"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="60"/>
-      <c r="M98" s="67"/>
-      <c r="N98" s="60"/>
-      <c r="O98" s="60"/>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B99" s="59"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="60"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="60"/>
-      <c r="L99" s="60"/>
-      <c r="M99" s="67"/>
-      <c r="N99" s="60"/>
-      <c r="O99" s="60"/>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B100" s="59"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="60"/>
-      <c r="M100" s="67"/>
-      <c r="N100" s="60"/>
-      <c r="O100" s="60"/>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B101" s="59"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="58"/>
-      <c r="E101" s="58"/>
-      <c r="F101" s="58"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="58"/>
-      <c r="I101" s="58"/>
-      <c r="J101" s="58"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="60"/>
-      <c r="M101" s="67"/>
-      <c r="N101" s="60"/>
-      <c r="O101" s="60"/>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B102" s="59"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="58"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="60"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="60"/>
-      <c r="M102" s="67"/>
-      <c r="N102" s="60"/>
-      <c r="O102" s="60"/>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B103" s="59"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="60"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="60"/>
-      <c r="L103" s="60"/>
-      <c r="M103" s="67"/>
-      <c r="N103" s="60"/>
-      <c r="O103" s="60"/>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B104" s="59"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
-      <c r="K104" s="60"/>
-      <c r="L104" s="60"/>
-      <c r="M104" s="67"/>
-      <c r="N104" s="60"/>
-      <c r="O104" s="60"/>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B105" s="59"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="58"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
-      <c r="M105" s="67"/>
-      <c r="N105" s="60"/>
-      <c r="O105" s="60"/>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B106" s="59"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="58"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="60"/>
-      <c r="H106" s="58"/>
-      <c r="I106" s="58"/>
-      <c r="J106" s="58"/>
-      <c r="K106" s="60"/>
-      <c r="L106" s="60"/>
-      <c r="M106" s="67"/>
-      <c r="N106" s="60"/>
-      <c r="O106" s="60"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B107" s="59"/>
-      <c r="C107" s="58"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="58"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="60"/>
-      <c r="H107" s="58"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="60"/>
-      <c r="L107" s="60"/>
-      <c r="M107" s="67"/>
-      <c r="N107" s="60"/>
-      <c r="O107" s="60"/>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B108" s="59"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="60"/>
-      <c r="L108" s="60"/>
-      <c r="M108" s="67"/>
-      <c r="N108" s="60"/>
-      <c r="O108" s="60"/>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B109" s="59"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="60"/>
-      <c r="H109" s="58"/>
-      <c r="I109" s="58"/>
-      <c r="J109" s="58"/>
-      <c r="K109" s="60"/>
-      <c r="L109" s="60"/>
-      <c r="M109" s="67"/>
-      <c r="N109" s="60"/>
-      <c r="O109" s="60"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B110" s="59"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="58"/>
-      <c r="E110" s="58"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="60"/>
-      <c r="H110" s="58"/>
-      <c r="I110" s="58"/>
-      <c r="J110" s="58"/>
-      <c r="K110" s="60"/>
-      <c r="L110" s="60"/>
-      <c r="M110" s="67"/>
-      <c r="N110" s="60"/>
-      <c r="O110" s="60"/>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B111" s="59"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="60"/>
-      <c r="H111" s="58"/>
-      <c r="I111" s="58"/>
-      <c r="J111" s="58"/>
-      <c r="K111" s="60"/>
-      <c r="L111" s="60"/>
-      <c r="M111" s="67"/>
-      <c r="N111" s="60"/>
-      <c r="O111" s="60"/>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B112" s="59"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="58"/>
-      <c r="E112" s="58"/>
-      <c r="F112" s="58"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="58"/>
-      <c r="I112" s="58"/>
-      <c r="J112" s="58"/>
-      <c r="K112" s="60"/>
-      <c r="L112" s="60"/>
-      <c r="M112" s="67"/>
-      <c r="N112" s="60"/>
-      <c r="O112" s="60"/>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B113" s="59"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="58"/>
-      <c r="E113" s="58"/>
-      <c r="F113" s="58"/>
-      <c r="G113" s="60"/>
-      <c r="H113" s="58"/>
-      <c r="I113" s="58"/>
-      <c r="J113" s="58"/>
-      <c r="K113" s="60"/>
-      <c r="L113" s="60"/>
-      <c r="M113" s="67"/>
-      <c r="N113" s="60"/>
-      <c r="O113" s="60"/>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B114" s="59"/>
-      <c r="C114" s="58"/>
-      <c r="D114" s="58"/>
-      <c r="E114" s="58"/>
-      <c r="F114" s="58"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="58"/>
-      <c r="I114" s="58"/>
-      <c r="J114" s="58"/>
-      <c r="K114" s="60"/>
-      <c r="L114" s="60"/>
-      <c r="M114" s="67"/>
-      <c r="N114" s="60"/>
-      <c r="O114" s="60"/>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B115" s="59"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="60"/>
-      <c r="H115" s="58"/>
-      <c r="I115" s="58"/>
-      <c r="J115" s="58"/>
-      <c r="K115" s="60"/>
-      <c r="L115" s="60"/>
-      <c r="M115" s="67"/>
-      <c r="N115" s="60"/>
-      <c r="O115" s="60"/>
-    </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B116" s="59"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="60"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="60"/>
-      <c r="L116" s="60"/>
-      <c r="M116" s="67"/>
-      <c r="N116" s="60"/>
-      <c r="O116" s="60"/>
-    </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B117" s="59"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="60"/>
-      <c r="H117" s="58"/>
-      <c r="I117" s="58"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="60"/>
-      <c r="L117" s="60"/>
-      <c r="M117" s="67"/>
-      <c r="N117" s="60"/>
-      <c r="O117" s="60"/>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B118" s="59"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="58"/>
-      <c r="G118" s="60"/>
-      <c r="H118" s="58"/>
-      <c r="I118" s="58"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="60"/>
-      <c r="L118" s="60"/>
-      <c r="M118" s="67"/>
-      <c r="N118" s="60"/>
-      <c r="O118" s="60"/>
-    </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B119" s="59"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="58"/>
-      <c r="F119" s="58"/>
-      <c r="G119" s="60"/>
-      <c r="H119" s="58"/>
-      <c r="I119" s="58"/>
-      <c r="J119" s="58"/>
-      <c r="K119" s="60"/>
-      <c r="L119" s="60"/>
-      <c r="M119" s="67"/>
-      <c r="N119" s="60"/>
-      <c r="O119" s="60"/>
-    </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B120" s="59"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="58"/>
-      <c r="G120" s="60"/>
-      <c r="H120" s="58"/>
-      <c r="I120" s="58"/>
-      <c r="J120" s="58"/>
-      <c r="K120" s="60"/>
-      <c r="L120" s="60"/>
-      <c r="M120" s="67"/>
-      <c r="N120" s="60"/>
-      <c r="O120" s="60"/>
-    </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B121" s="59"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="58"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="58"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="58"/>
-      <c r="I121" s="58"/>
-      <c r="J121" s="58"/>
-      <c r="K121" s="60"/>
-      <c r="L121" s="60"/>
-      <c r="M121" s="67"/>
-      <c r="N121" s="60"/>
-      <c r="O121" s="60"/>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B122" s="59"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="58"/>
-      <c r="F122" s="58"/>
-      <c r="G122" s="60"/>
-      <c r="H122" s="58"/>
-      <c r="I122" s="58"/>
-      <c r="J122" s="58"/>
-      <c r="K122" s="60"/>
-      <c r="L122" s="60"/>
-      <c r="M122" s="67"/>
-      <c r="N122" s="60"/>
-      <c r="O122" s="60"/>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B123" s="59"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="58"/>
-      <c r="F123" s="58"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="58"/>
-      <c r="I123" s="58"/>
-      <c r="J123" s="58"/>
-      <c r="K123" s="60"/>
-      <c r="L123" s="60"/>
-      <c r="M123" s="67"/>
-      <c r="N123" s="60"/>
-      <c r="O123" s="60"/>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B124" s="59"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="58"/>
-      <c r="E124" s="58"/>
-      <c r="F124" s="58"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="58"/>
-      <c r="I124" s="58"/>
-      <c r="J124" s="58"/>
-      <c r="K124" s="60"/>
-      <c r="L124" s="60"/>
-      <c r="M124" s="67"/>
-      <c r="N124" s="60"/>
-      <c r="O124" s="60"/>
-    </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B125" s="59"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="58"/>
-      <c r="E125" s="58"/>
-      <c r="F125" s="58"/>
-      <c r="G125" s="60"/>
-      <c r="H125" s="58"/>
-      <c r="I125" s="58"/>
-      <c r="J125" s="58"/>
-      <c r="K125" s="60"/>
-      <c r="L125" s="60"/>
-      <c r="M125" s="67"/>
-      <c r="N125" s="60"/>
-      <c r="O125" s="60"/>
-    </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B126" s="59"/>
-      <c r="C126" s="58"/>
-      <c r="D126" s="58"/>
-      <c r="E126" s="58"/>
-      <c r="F126" s="58"/>
-      <c r="G126" s="60"/>
-      <c r="H126" s="58"/>
-      <c r="I126" s="58"/>
-      <c r="J126" s="58"/>
-      <c r="K126" s="60"/>
-      <c r="L126" s="60"/>
-      <c r="M126" s="67"/>
-      <c r="N126" s="60"/>
-      <c r="O126" s="60"/>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B127" s="59"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
-      <c r="F127" s="58"/>
-      <c r="G127" s="60"/>
-      <c r="H127" s="58"/>
-      <c r="I127" s="58"/>
-      <c r="J127" s="58"/>
-      <c r="K127" s="60"/>
-      <c r="L127" s="60"/>
-      <c r="M127" s="67"/>
-      <c r="N127" s="60"/>
-      <c r="O127" s="60"/>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B128" s="59"/>
-      <c r="C128" s="58"/>
-      <c r="D128" s="58"/>
-      <c r="E128" s="58"/>
-      <c r="F128" s="58"/>
-      <c r="G128" s="60"/>
-      <c r="H128" s="58"/>
-      <c r="I128" s="58"/>
-      <c r="J128" s="58"/>
-      <c r="K128" s="60"/>
-      <c r="L128" s="60"/>
-      <c r="M128" s="67"/>
-      <c r="N128" s="60"/>
-      <c r="O128" s="60"/>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B129" s="59"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="60"/>
-      <c r="H129" s="58"/>
-      <c r="I129" s="58"/>
-      <c r="J129" s="58"/>
-      <c r="K129" s="60"/>
-      <c r="L129" s="60"/>
-      <c r="M129" s="67"/>
-      <c r="N129" s="60"/>
-      <c r="O129" s="60"/>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B130" s="59"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="58"/>
-      <c r="E130" s="58"/>
-      <c r="F130" s="58"/>
-      <c r="G130" s="60"/>
-      <c r="H130" s="58"/>
-      <c r="I130" s="58"/>
-      <c r="J130" s="58"/>
-      <c r="K130" s="60"/>
-      <c r="L130" s="60"/>
-      <c r="M130" s="67"/>
-      <c r="N130" s="60"/>
-      <c r="O130" s="60"/>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B131" s="59"/>
-      <c r="C131" s="58"/>
-      <c r="D131" s="58"/>
-      <c r="E131" s="58"/>
-      <c r="F131" s="58"/>
-      <c r="G131" s="60"/>
-      <c r="H131" s="58"/>
-      <c r="I131" s="58"/>
-      <c r="J131" s="58"/>
-      <c r="K131" s="60"/>
-      <c r="L131" s="60"/>
-      <c r="M131" s="67"/>
-      <c r="N131" s="60"/>
-      <c r="O131" s="60"/>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B132" s="59"/>
-      <c r="C132" s="58"/>
-      <c r="D132" s="58"/>
-      <c r="E132" s="58"/>
-      <c r="F132" s="58"/>
-      <c r="G132" s="60"/>
-      <c r="H132" s="58"/>
-      <c r="I132" s="58"/>
-      <c r="J132" s="58"/>
-      <c r="K132" s="60"/>
-      <c r="L132" s="60"/>
-      <c r="M132" s="67"/>
-      <c r="N132" s="60"/>
-      <c r="O132" s="60"/>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B133" s="59"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="58"/>
-      <c r="F133" s="58"/>
-      <c r="G133" s="60"/>
-      <c r="H133" s="58"/>
-      <c r="I133" s="58"/>
-      <c r="J133" s="58"/>
-      <c r="K133" s="60"/>
-      <c r="L133" s="60"/>
-      <c r="M133" s="67"/>
-      <c r="N133" s="60"/>
-      <c r="O133" s="60"/>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B134" s="59"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="58"/>
-      <c r="E134" s="58"/>
-      <c r="F134" s="58"/>
-      <c r="G134" s="60"/>
-      <c r="H134" s="58"/>
-      <c r="I134" s="58"/>
-      <c r="J134" s="58"/>
-      <c r="K134" s="60"/>
-      <c r="L134" s="60"/>
-      <c r="M134" s="67"/>
-      <c r="N134" s="60"/>
-      <c r="O134" s="60"/>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B135" s="59"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="58"/>
-      <c r="F135" s="58"/>
-      <c r="G135" s="60"/>
-      <c r="H135" s="58"/>
-      <c r="I135" s="58"/>
-      <c r="J135" s="58"/>
-      <c r="K135" s="60"/>
-      <c r="L135" s="60"/>
-      <c r="M135" s="67"/>
-      <c r="N135" s="60"/>
-      <c r="O135" s="60"/>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B136" s="59"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="58"/>
-      <c r="E136" s="58"/>
-      <c r="F136" s="58"/>
-      <c r="G136" s="60"/>
-      <c r="H136" s="58"/>
-      <c r="I136" s="58"/>
-      <c r="J136" s="58"/>
-      <c r="K136" s="60"/>
-      <c r="L136" s="60"/>
-      <c r="M136" s="67"/>
-      <c r="N136" s="60"/>
-      <c r="O136" s="60"/>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B137" s="59"/>
-      <c r="C137" s="58"/>
-      <c r="D137" s="58"/>
-      <c r="E137" s="58"/>
-      <c r="F137" s="58"/>
-      <c r="G137" s="60"/>
-      <c r="H137" s="58"/>
-      <c r="I137" s="58"/>
-      <c r="J137" s="58"/>
-      <c r="K137" s="60"/>
-      <c r="L137" s="60"/>
-      <c r="M137" s="67"/>
-      <c r="N137" s="60"/>
-      <c r="O137" s="60"/>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B138" s="59"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="58"/>
-      <c r="E138" s="58"/>
-      <c r="F138" s="58"/>
-      <c r="G138" s="60"/>
-      <c r="H138" s="58"/>
-      <c r="I138" s="58"/>
-      <c r="J138" s="58"/>
-      <c r="K138" s="60"/>
-      <c r="L138" s="60"/>
-      <c r="M138" s="67"/>
-      <c r="N138" s="60"/>
-      <c r="O138" s="60"/>
-    </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B139" s="59"/>
-      <c r="C139" s="58"/>
-      <c r="D139" s="58"/>
-      <c r="E139" s="58"/>
-      <c r="F139" s="58"/>
-      <c r="G139" s="60"/>
-      <c r="H139" s="58"/>
-      <c r="I139" s="58"/>
-      <c r="J139" s="58"/>
-      <c r="K139" s="60"/>
-      <c r="L139" s="60"/>
-      <c r="M139" s="67"/>
-      <c r="N139" s="60"/>
-      <c r="O139" s="60"/>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B140" s="59"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="58"/>
-      <c r="E140" s="58"/>
-      <c r="F140" s="58"/>
-      <c r="G140" s="60"/>
-      <c r="H140" s="58"/>
-      <c r="I140" s="58"/>
-      <c r="J140" s="58"/>
-      <c r="K140" s="60"/>
-      <c r="L140" s="60"/>
-      <c r="M140" s="67"/>
-      <c r="N140" s="60"/>
-      <c r="O140" s="60"/>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B141" s="59"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="58"/>
-      <c r="F141" s="58"/>
-      <c r="G141" s="60"/>
-      <c r="H141" s="58"/>
-      <c r="I141" s="58"/>
-      <c r="J141" s="58"/>
-      <c r="K141" s="60"/>
-      <c r="L141" s="60"/>
-      <c r="M141" s="67"/>
-      <c r="N141" s="60"/>
-      <c r="O141" s="60"/>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B142" s="59"/>
-      <c r="C142" s="58"/>
-      <c r="D142" s="58"/>
-      <c r="E142" s="58"/>
-      <c r="F142" s="58"/>
-      <c r="G142" s="60"/>
-      <c r="H142" s="58"/>
-      <c r="I142" s="58"/>
-      <c r="J142" s="58"/>
-      <c r="K142" s="60"/>
-      <c r="L142" s="60"/>
-      <c r="M142" s="67"/>
-      <c r="N142" s="60"/>
-      <c r="O142" s="60"/>
-    </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B143" s="59"/>
-      <c r="C143" s="58"/>
-      <c r="D143" s="58"/>
-      <c r="E143" s="58"/>
-      <c r="F143" s="58"/>
-      <c r="G143" s="60"/>
-      <c r="H143" s="58"/>
-      <c r="I143" s="58"/>
-      <c r="J143" s="58"/>
-      <c r="K143" s="60"/>
-      <c r="L143" s="60"/>
-      <c r="M143" s="67"/>
-      <c r="N143" s="60"/>
-      <c r="O143" s="60"/>
-    </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B144" s="59"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="58"/>
-      <c r="E144" s="58"/>
-      <c r="F144" s="58"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="58"/>
-      <c r="I144" s="58"/>
-      <c r="J144" s="58"/>
-      <c r="K144" s="60"/>
-      <c r="L144" s="60"/>
-      <c r="M144" s="67"/>
-      <c r="N144" s="60"/>
-      <c r="O144" s="60"/>
-    </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B145" s="59"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="58"/>
-      <c r="F145" s="58"/>
-      <c r="G145" s="60"/>
-      <c r="H145" s="58"/>
-      <c r="I145" s="58"/>
-      <c r="J145" s="58"/>
-      <c r="K145" s="60"/>
-      <c r="L145" s="60"/>
-      <c r="M145" s="67"/>
-      <c r="N145" s="60"/>
-      <c r="O145" s="60"/>
-    </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B146" s="59"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="58"/>
-      <c r="E146" s="58"/>
-      <c r="F146" s="58"/>
-      <c r="G146" s="60"/>
-      <c r="H146" s="58"/>
-      <c r="I146" s="58"/>
-      <c r="J146" s="58"/>
-      <c r="K146" s="60"/>
-      <c r="L146" s="60"/>
-      <c r="M146" s="67"/>
-      <c r="N146" s="60"/>
-      <c r="O146" s="60"/>
-    </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B147" s="59"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="58"/>
-      <c r="F147" s="58"/>
-      <c r="G147" s="60"/>
-      <c r="H147" s="58"/>
-      <c r="I147" s="58"/>
-      <c r="J147" s="58"/>
-      <c r="K147" s="60"/>
-      <c r="L147" s="60"/>
-      <c r="M147" s="67"/>
-      <c r="N147" s="60"/>
-      <c r="O147" s="60"/>
-    </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B148" s="59"/>
-      <c r="C148" s="58"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="58"/>
-      <c r="F148" s="58"/>
-      <c r="G148" s="60"/>
-      <c r="H148" s="58"/>
-      <c r="I148" s="58"/>
-      <c r="J148" s="58"/>
-      <c r="K148" s="60"/>
-      <c r="L148" s="60"/>
-      <c r="M148" s="67"/>
-      <c r="N148" s="60"/>
-      <c r="O148" s="60"/>
-    </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B149" s="59"/>
-      <c r="C149" s="58"/>
-      <c r="D149" s="58"/>
-      <c r="E149" s="58"/>
-      <c r="F149" s="58"/>
-      <c r="G149" s="60"/>
-      <c r="H149" s="58"/>
-      <c r="I149" s="58"/>
-      <c r="J149" s="58"/>
-      <c r="K149" s="60"/>
-      <c r="L149" s="60"/>
-      <c r="M149" s="67"/>
-      <c r="N149" s="60"/>
-      <c r="O149" s="60"/>
-    </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B150" s="59"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="58"/>
-      <c r="F150" s="58"/>
-      <c r="G150" s="60"/>
-      <c r="H150" s="58"/>
-      <c r="I150" s="58"/>
-      <c r="J150" s="58"/>
-      <c r="K150" s="60"/>
-      <c r="L150" s="60"/>
-      <c r="M150" s="67"/>
-      <c r="N150" s="60"/>
-      <c r="O150" s="60"/>
-    </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B151" s="59"/>
-      <c r="C151" s="58"/>
-      <c r="D151" s="58"/>
-      <c r="E151" s="58"/>
-      <c r="F151" s="58"/>
-      <c r="G151" s="60"/>
-      <c r="H151" s="58"/>
-      <c r="I151" s="58"/>
-      <c r="J151" s="58"/>
-      <c r="K151" s="60"/>
-      <c r="L151" s="60"/>
-      <c r="M151" s="67"/>
-      <c r="N151" s="60"/>
-      <c r="O151" s="60"/>
-    </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B152" s="59"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="58"/>
-      <c r="E152" s="58"/>
-      <c r="F152" s="58"/>
-      <c r="G152" s="60"/>
-      <c r="H152" s="58"/>
-      <c r="I152" s="58"/>
-      <c r="J152" s="58"/>
-      <c r="K152" s="60"/>
-      <c r="L152" s="60"/>
-      <c r="M152" s="67"/>
-      <c r="N152" s="60"/>
-      <c r="O152" s="60"/>
-    </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B153" s="59"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="58"/>
-      <c r="E153" s="58"/>
-      <c r="F153" s="58"/>
-      <c r="G153" s="60"/>
-      <c r="H153" s="58"/>
-      <c r="I153" s="58"/>
-      <c r="J153" s="58"/>
-      <c r="K153" s="60"/>
-      <c r="L153" s="60"/>
-      <c r="M153" s="67"/>
-      <c r="N153" s="60"/>
-      <c r="O153" s="60"/>
-    </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B154" s="59"/>
-      <c r="C154" s="58"/>
-      <c r="D154" s="58"/>
-      <c r="E154" s="58"/>
-      <c r="F154" s="58"/>
-      <c r="G154" s="60"/>
-      <c r="H154" s="58"/>
-      <c r="I154" s="58"/>
-      <c r="J154" s="58"/>
-      <c r="K154" s="60"/>
-      <c r="L154" s="60"/>
-      <c r="M154" s="67"/>
-      <c r="N154" s="60"/>
-      <c r="O154" s="60"/>
-    </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B155" s="59"/>
-      <c r="C155" s="58"/>
-      <c r="D155" s="58"/>
-      <c r="E155" s="58"/>
-      <c r="F155" s="58"/>
-      <c r="G155" s="60"/>
-      <c r="H155" s="58"/>
-      <c r="I155" s="58"/>
-      <c r="J155" s="58"/>
-      <c r="K155" s="60"/>
-      <c r="L155" s="60"/>
-      <c r="M155" s="67"/>
-      <c r="N155" s="60"/>
-      <c r="O155" s="60"/>
-    </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B156" s="59"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="58"/>
-      <c r="E156" s="58"/>
-      <c r="F156" s="58"/>
-      <c r="G156" s="60"/>
-      <c r="H156" s="58"/>
-      <c r="I156" s="58"/>
-      <c r="J156" s="58"/>
-      <c r="K156" s="60"/>
-      <c r="L156" s="60"/>
-      <c r="M156" s="67"/>
-      <c r="N156" s="60"/>
-      <c r="O156" s="60"/>
-    </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B157" s="59"/>
-      <c r="C157" s="58"/>
-      <c r="D157" s="58"/>
-      <c r="E157" s="58"/>
-      <c r="F157" s="58"/>
-      <c r="G157" s="60"/>
-      <c r="H157" s="58"/>
-      <c r="I157" s="58"/>
-      <c r="J157" s="58"/>
-      <c r="K157" s="60"/>
-      <c r="L157" s="60"/>
-      <c r="M157" s="67"/>
-      <c r="N157" s="60"/>
-      <c r="O157" s="60"/>
-    </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B158" s="59"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="58"/>
-      <c r="F158" s="58"/>
-      <c r="G158" s="60"/>
-      <c r="H158" s="58"/>
-      <c r="I158" s="58"/>
-      <c r="J158" s="58"/>
-      <c r="K158" s="60"/>
-      <c r="L158" s="60"/>
-      <c r="M158" s="67"/>
-      <c r="N158" s="60"/>
-      <c r="O158" s="60"/>
-    </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B159" s="59"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="58"/>
-      <c r="G159" s="60"/>
-      <c r="H159" s="58"/>
-      <c r="I159" s="58"/>
-      <c r="J159" s="58"/>
-      <c r="K159" s="60"/>
-      <c r="L159" s="60"/>
-      <c r="M159" s="67"/>
-      <c r="N159" s="60"/>
-      <c r="O159" s="60"/>
-    </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B160" s="59"/>
-      <c r="C160" s="58"/>
-      <c r="D160" s="58"/>
-      <c r="E160" s="58"/>
-      <c r="F160" s="58"/>
-      <c r="G160" s="60"/>
-      <c r="H160" s="58"/>
-      <c r="I160" s="58"/>
-      <c r="J160" s="58"/>
-      <c r="K160" s="60"/>
-      <c r="L160" s="60"/>
-      <c r="M160" s="67"/>
-      <c r="N160" s="60"/>
-      <c r="O160" s="60"/>
-    </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B161" s="59"/>
-      <c r="C161" s="58"/>
-      <c r="D161" s="58"/>
-      <c r="E161" s="58"/>
-      <c r="F161" s="58"/>
-      <c r="G161" s="60"/>
-      <c r="H161" s="58"/>
-      <c r="I161" s="58"/>
-      <c r="J161" s="58"/>
-      <c r="K161" s="60"/>
-      <c r="L161" s="60"/>
-      <c r="M161" s="67"/>
-      <c r="N161" s="60"/>
-      <c r="O161" s="60"/>
-    </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B162" s="59"/>
-      <c r="C162" s="58"/>
-      <c r="D162" s="58"/>
-      <c r="E162" s="58"/>
-      <c r="F162" s="58"/>
-      <c r="G162" s="60"/>
-      <c r="H162" s="58"/>
-      <c r="I162" s="58"/>
-      <c r="J162" s="58"/>
-      <c r="K162" s="60"/>
-      <c r="L162" s="60"/>
-      <c r="M162" s="67"/>
-      <c r="N162" s="60"/>
-      <c r="O162" s="60"/>
-    </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B163" s="59"/>
-      <c r="C163" s="58"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="58"/>
-      <c r="F163" s="58"/>
-      <c r="G163" s="60"/>
-      <c r="H163" s="58"/>
-      <c r="I163" s="58"/>
-      <c r="J163" s="58"/>
-      <c r="K163" s="60"/>
-      <c r="L163" s="60"/>
-      <c r="M163" s="67"/>
-      <c r="N163" s="60"/>
-      <c r="O163" s="60"/>
-    </row>
-    <row r="164" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B164" s="59"/>
-      <c r="C164" s="58"/>
-      <c r="D164" s="58"/>
-      <c r="E164" s="58"/>
-      <c r="F164" s="58"/>
-      <c r="G164" s="60"/>
-      <c r="H164" s="58"/>
-      <c r="I164" s="58"/>
-      <c r="J164" s="58"/>
-      <c r="K164" s="60"/>
-      <c r="L164" s="60"/>
-      <c r="M164" s="67"/>
-      <c r="N164" s="60"/>
-      <c r="O164" s="60"/>
-    </row>
-    <row r="165" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B165" s="59"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="60"/>
-      <c r="H165" s="58"/>
-      <c r="I165" s="58"/>
-      <c r="J165" s="58"/>
-      <c r="K165" s="60"/>
-      <c r="L165" s="60"/>
-      <c r="M165" s="67"/>
-      <c r="N165" s="60"/>
-      <c r="O165" s="60"/>
-    </row>
-    <row r="166" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B166" s="59"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="58"/>
-      <c r="E166" s="58"/>
-      <c r="F166" s="58"/>
-      <c r="G166" s="60"/>
-      <c r="H166" s="58"/>
-      <c r="I166" s="58"/>
-      <c r="J166" s="58"/>
-      <c r="K166" s="60"/>
-      <c r="L166" s="60"/>
-      <c r="M166" s="67"/>
-      <c r="N166" s="60"/>
-      <c r="O166" s="60"/>
-    </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B167" s="59"/>
-      <c r="C167" s="58"/>
-      <c r="D167" s="58"/>
-      <c r="E167" s="58"/>
-      <c r="F167" s="58"/>
-      <c r="G167" s="60"/>
-      <c r="H167" s="58"/>
-      <c r="I167" s="58"/>
-      <c r="J167" s="58"/>
-      <c r="K167" s="60"/>
-      <c r="L167" s="60"/>
-      <c r="M167" s="67"/>
-      <c r="N167" s="60"/>
-      <c r="O167" s="60"/>
-    </row>
-    <row r="168" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B168" s="59"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="60"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="58"/>
-      <c r="J168" s="58"/>
-      <c r="K168" s="60"/>
-      <c r="L168" s="60"/>
-      <c r="M168" s="67"/>
-      <c r="N168" s="60"/>
-      <c r="O168" s="60"/>
-    </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B169" s="59"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="60"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="58"/>
-      <c r="J169" s="58"/>
-      <c r="K169" s="60"/>
-      <c r="L169" s="60"/>
-      <c r="M169" s="67"/>
-      <c r="N169" s="60"/>
-      <c r="O169" s="60"/>
-    </row>
-    <row r="170" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B170" s="59"/>
-      <c r="C170" s="58"/>
-      <c r="D170" s="58"/>
-      <c r="E170" s="58"/>
-      <c r="F170" s="58"/>
-      <c r="G170" s="60"/>
-      <c r="H170" s="58"/>
-      <c r="I170" s="58"/>
-      <c r="J170" s="58"/>
-      <c r="K170" s="60"/>
-      <c r="L170" s="60"/>
-      <c r="M170" s="67"/>
-      <c r="N170" s="60"/>
-      <c r="O170" s="60"/>
-    </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B171" s="59"/>
-      <c r="C171" s="58"/>
-      <c r="D171" s="58"/>
-      <c r="E171" s="58"/>
-      <c r="F171" s="58"/>
-      <c r="G171" s="60"/>
-      <c r="H171" s="58"/>
-      <c r="I171" s="58"/>
-      <c r="J171" s="58"/>
-      <c r="K171" s="60"/>
-      <c r="L171" s="60"/>
-      <c r="M171" s="67"/>
-      <c r="N171" s="60"/>
-      <c r="O171" s="60"/>
-    </row>
-    <row r="172" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B172" s="59"/>
-      <c r="C172" s="58"/>
-      <c r="D172" s="58"/>
-      <c r="E172" s="58"/>
-      <c r="F172" s="58"/>
-      <c r="G172" s="60"/>
-      <c r="H172" s="58"/>
-      <c r="I172" s="58"/>
-      <c r="J172" s="58"/>
-      <c r="K172" s="60"/>
-      <c r="L172" s="60"/>
-      <c r="M172" s="67"/>
-      <c r="N172" s="60"/>
-      <c r="O172" s="60"/>
-    </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B173" s="59"/>
-      <c r="C173" s="58"/>
-      <c r="D173" s="58"/>
-      <c r="E173" s="58"/>
-      <c r="F173" s="58"/>
-      <c r="G173" s="60"/>
-      <c r="H173" s="58"/>
-      <c r="I173" s="58"/>
-      <c r="J173" s="58"/>
-      <c r="K173" s="60"/>
-      <c r="L173" s="60"/>
-      <c r="M173" s="67"/>
-      <c r="N173" s="60"/>
-      <c r="O173" s="60"/>
-    </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B174" s="59"/>
-      <c r="C174" s="58"/>
-      <c r="D174" s="58"/>
-      <c r="E174" s="58"/>
-      <c r="F174" s="58"/>
-      <c r="G174" s="60"/>
-      <c r="H174" s="58"/>
-      <c r="I174" s="58"/>
-      <c r="J174" s="58"/>
-      <c r="K174" s="60"/>
-      <c r="L174" s="60"/>
-      <c r="M174" s="67"/>
-      <c r="N174" s="60"/>
-      <c r="O174" s="60"/>
-    </row>
-    <row r="175" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B175" s="59"/>
-      <c r="C175" s="58"/>
-      <c r="D175" s="58"/>
-      <c r="E175" s="58"/>
-      <c r="F175" s="58"/>
-      <c r="G175" s="60"/>
-      <c r="H175" s="58"/>
-      <c r="I175" s="58"/>
-      <c r="J175" s="58"/>
-      <c r="K175" s="60"/>
-      <c r="L175" s="60"/>
-      <c r="M175" s="67"/>
-      <c r="N175" s="60"/>
-      <c r="O175" s="60"/>
-    </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B176" s="59"/>
-      <c r="C176" s="58"/>
-      <c r="D176" s="58"/>
-      <c r="E176" s="58"/>
-      <c r="F176" s="58"/>
-      <c r="G176" s="60"/>
-      <c r="H176" s="58"/>
-      <c r="I176" s="58"/>
-      <c r="J176" s="58"/>
-      <c r="K176" s="60"/>
-      <c r="L176" s="60"/>
-      <c r="M176" s="67"/>
-      <c r="N176" s="60"/>
-      <c r="O176" s="60"/>
-    </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B177" s="59"/>
-      <c r="C177" s="58"/>
-      <c r="D177" s="58"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="60"/>
-      <c r="H177" s="58"/>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="60"/>
-      <c r="L177" s="60"/>
-      <c r="M177" s="67"/>
-      <c r="N177" s="60"/>
-      <c r="O177" s="60"/>
-    </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B178" s="59"/>
-      <c r="C178" s="58"/>
-      <c r="D178" s="58"/>
-      <c r="E178" s="58"/>
-      <c r="F178" s="58"/>
-      <c r="G178" s="60"/>
-      <c r="H178" s="58"/>
-      <c r="I178" s="58"/>
-      <c r="J178" s="58"/>
-      <c r="K178" s="60"/>
-      <c r="L178" s="60"/>
-      <c r="M178" s="67"/>
-      <c r="N178" s="60"/>
-      <c r="O178" s="60"/>
-    </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B179" s="59"/>
-      <c r="C179" s="58"/>
-      <c r="D179" s="58"/>
-      <c r="E179" s="58"/>
-      <c r="F179" s="58"/>
-      <c r="G179" s="60"/>
-      <c r="H179" s="58"/>
-      <c r="I179" s="58"/>
-      <c r="J179" s="58"/>
-      <c r="K179" s="60"/>
-      <c r="L179" s="60"/>
-      <c r="M179" s="67"/>
-      <c r="N179" s="60"/>
-      <c r="O179" s="60"/>
-    </row>
-    <row r="180" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B180" s="59"/>
-      <c r="C180" s="58"/>
-      <c r="D180" s="58"/>
-      <c r="E180" s="58"/>
-      <c r="F180" s="58"/>
-      <c r="G180" s="60"/>
-      <c r="H180" s="58"/>
-      <c r="I180" s="58"/>
-      <c r="J180" s="58"/>
-      <c r="K180" s="60"/>
-      <c r="L180" s="60"/>
-      <c r="M180" s="67"/>
-      <c r="N180" s="60"/>
-      <c r="O180" s="60"/>
-    </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B181" s="59"/>
-      <c r="C181" s="58"/>
-      <c r="D181" s="58"/>
-      <c r="E181" s="58"/>
-      <c r="F181" s="58"/>
-      <c r="G181" s="60"/>
-      <c r="H181" s="58"/>
-      <c r="I181" s="58"/>
-      <c r="J181" s="58"/>
-      <c r="K181" s="60"/>
-      <c r="L181" s="60"/>
-      <c r="M181" s="67"/>
-      <c r="N181" s="60"/>
-      <c r="O181" s="60"/>
-    </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B182" s="59"/>
-      <c r="C182" s="58"/>
-      <c r="D182" s="58"/>
-      <c r="E182" s="58"/>
-      <c r="F182" s="58"/>
-      <c r="G182" s="60"/>
-      <c r="H182" s="58"/>
-      <c r="I182" s="58"/>
-      <c r="J182" s="58"/>
-      <c r="K182" s="60"/>
-      <c r="L182" s="60"/>
-      <c r="M182" s="67"/>
-      <c r="N182" s="60"/>
-      <c r="O182" s="60"/>
-    </row>
-    <row r="183" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B183" s="59"/>
-      <c r="C183" s="58"/>
-      <c r="D183" s="58"/>
-      <c r="E183" s="58"/>
-      <c r="F183" s="58"/>
-      <c r="G183" s="60"/>
-      <c r="H183" s="58"/>
-      <c r="I183" s="58"/>
-      <c r="J183" s="58"/>
-      <c r="K183" s="60"/>
-      <c r="L183" s="60"/>
-      <c r="M183" s="67"/>
-      <c r="N183" s="60"/>
-      <c r="O183" s="60"/>
-    </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B184" s="59"/>
-      <c r="C184" s="58"/>
-      <c r="D184" s="58"/>
-      <c r="E184" s="58"/>
-      <c r="F184" s="58"/>
-      <c r="G184" s="60"/>
-      <c r="H184" s="58"/>
-      <c r="I184" s="58"/>
-      <c r="J184" s="58"/>
-      <c r="K184" s="60"/>
-      <c r="L184" s="60"/>
-      <c r="M184" s="67"/>
-      <c r="N184" s="60"/>
-      <c r="O184" s="60"/>
-    </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B185" s="59"/>
-      <c r="C185" s="58"/>
-      <c r="D185" s="58"/>
-      <c r="E185" s="58"/>
-      <c r="F185" s="58"/>
-      <c r="G185" s="60"/>
-      <c r="H185" s="58"/>
-      <c r="I185" s="58"/>
-      <c r="J185" s="58"/>
-      <c r="K185" s="60"/>
-      <c r="L185" s="60"/>
-      <c r="M185" s="67"/>
-      <c r="N185" s="60"/>
-      <c r="O185" s="60"/>
-    </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B186" s="59"/>
-      <c r="C186" s="58"/>
-      <c r="D186" s="58"/>
-      <c r="E186" s="58"/>
-      <c r="F186" s="58"/>
-      <c r="G186" s="60"/>
-      <c r="H186" s="58"/>
-      <c r="I186" s="58"/>
-      <c r="J186" s="58"/>
-      <c r="K186" s="60"/>
-      <c r="L186" s="60"/>
-      <c r="M186" s="67"/>
-      <c r="N186" s="60"/>
-      <c r="O186" s="60"/>
-    </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B187" s="59"/>
-      <c r="C187" s="58"/>
-      <c r="D187" s="58"/>
-      <c r="E187" s="58"/>
-      <c r="F187" s="58"/>
-      <c r="G187" s="60"/>
-      <c r="H187" s="58"/>
-      <c r="I187" s="58"/>
-      <c r="J187" s="58"/>
-      <c r="K187" s="60"/>
-      <c r="L187" s="60"/>
-      <c r="M187" s="67"/>
-      <c r="N187" s="60"/>
-      <c r="O187" s="60"/>
-    </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B188" s="59"/>
-      <c r="C188" s="58"/>
-      <c r="D188" s="58"/>
-      <c r="E188" s="58"/>
-      <c r="F188" s="58"/>
-      <c r="G188" s="60"/>
-      <c r="H188" s="58"/>
-      <c r="I188" s="58"/>
-      <c r="J188" s="58"/>
-      <c r="K188" s="60"/>
-      <c r="L188" s="60"/>
-      <c r="M188" s="67"/>
-      <c r="N188" s="60"/>
-      <c r="O188" s="60"/>
-    </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B189" s="59"/>
-      <c r="C189" s="58"/>
-      <c r="D189" s="58"/>
-      <c r="E189" s="58"/>
-      <c r="F189" s="58"/>
-      <c r="G189" s="60"/>
-      <c r="H189" s="58"/>
-      <c r="I189" s="58"/>
-      <c r="J189" s="58"/>
-      <c r="K189" s="60"/>
-      <c r="L189" s="60"/>
-      <c r="M189" s="67"/>
-      <c r="N189" s="60"/>
-      <c r="O189" s="60"/>
-    </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B190" s="59"/>
-      <c r="C190" s="58"/>
-      <c r="D190" s="58"/>
-      <c r="E190" s="58"/>
-      <c r="F190" s="58"/>
-      <c r="G190" s="60"/>
-      <c r="H190" s="58"/>
-      <c r="I190" s="58"/>
-      <c r="J190" s="58"/>
-      <c r="K190" s="60"/>
-      <c r="L190" s="60"/>
-      <c r="M190" s="67"/>
-      <c r="N190" s="60"/>
-      <c r="O190" s="60"/>
-    </row>
-    <row r="191" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B191" s="59"/>
-      <c r="C191" s="58"/>
-      <c r="D191" s="58"/>
-      <c r="E191" s="58"/>
-      <c r="F191" s="58"/>
-      <c r="G191" s="60"/>
-      <c r="H191" s="58"/>
-      <c r="I191" s="58"/>
-      <c r="J191" s="58"/>
-      <c r="K191" s="60"/>
-      <c r="L191" s="60"/>
-      <c r="M191" s="67"/>
-      <c r="N191" s="60"/>
-      <c r="O191" s="60"/>
-    </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B192" s="59"/>
-      <c r="C192" s="58"/>
-      <c r="D192" s="58"/>
-      <c r="E192" s="58"/>
-      <c r="F192" s="58"/>
-      <c r="G192" s="60"/>
-      <c r="H192" s="58"/>
-      <c r="I192" s="58"/>
-      <c r="J192" s="58"/>
-      <c r="K192" s="60"/>
-      <c r="L192" s="60"/>
-      <c r="M192" s="67"/>
-      <c r="N192" s="60"/>
-      <c r="O192" s="60"/>
-    </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B193" s="59"/>
-      <c r="C193" s="58"/>
-      <c r="D193" s="58"/>
-      <c r="E193" s="58"/>
-      <c r="F193" s="58"/>
-      <c r="G193" s="60"/>
-      <c r="H193" s="58"/>
-      <c r="I193" s="58"/>
-      <c r="J193" s="58"/>
-      <c r="K193" s="60"/>
-      <c r="L193" s="60"/>
-      <c r="M193" s="67"/>
-      <c r="N193" s="60"/>
-      <c r="O193" s="60"/>
-    </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B194" s="59"/>
-      <c r="C194" s="58"/>
-      <c r="D194" s="58"/>
-      <c r="E194" s="58"/>
-      <c r="F194" s="58"/>
-      <c r="G194" s="60"/>
-      <c r="H194" s="58"/>
-      <c r="I194" s="58"/>
-      <c r="J194" s="58"/>
-      <c r="K194" s="60"/>
-      <c r="L194" s="60"/>
-      <c r="M194" s="67"/>
-      <c r="N194" s="60"/>
-      <c r="O194" s="60"/>
-    </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B195" s="59"/>
-      <c r="C195" s="58"/>
-      <c r="D195" s="58"/>
-      <c r="E195" s="58"/>
-      <c r="F195" s="58"/>
-      <c r="G195" s="60"/>
-      <c r="H195" s="58"/>
-      <c r="I195" s="58"/>
-      <c r="J195" s="58"/>
-      <c r="K195" s="60"/>
-      <c r="L195" s="60"/>
-      <c r="M195" s="67"/>
-      <c r="N195" s="60"/>
-      <c r="O195" s="60"/>
-    </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B196" s="59"/>
-      <c r="C196" s="58"/>
-      <c r="D196" s="58"/>
-      <c r="E196" s="58"/>
-      <c r="F196" s="58"/>
-      <c r="G196" s="60"/>
-      <c r="H196" s="58"/>
-      <c r="I196" s="58"/>
-      <c r="J196" s="58"/>
-      <c r="K196" s="60"/>
-      <c r="L196" s="60"/>
-      <c r="M196" s="67"/>
-      <c r="N196" s="60"/>
-      <c r="O196" s="60"/>
-    </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B197" s="59"/>
-      <c r="C197" s="58"/>
-      <c r="D197" s="58"/>
-      <c r="E197" s="58"/>
-      <c r="F197" s="58"/>
-      <c r="G197" s="60"/>
-      <c r="H197" s="58"/>
-      <c r="I197" s="58"/>
-      <c r="J197" s="58"/>
-      <c r="K197" s="60"/>
-      <c r="L197" s="60"/>
-      <c r="M197" s="67"/>
-      <c r="N197" s="60"/>
-      <c r="O197" s="60"/>
-    </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B198" s="59"/>
-      <c r="C198" s="58"/>
-      <c r="D198" s="58"/>
-      <c r="E198" s="58"/>
-      <c r="F198" s="58"/>
-      <c r="G198" s="60"/>
-      <c r="H198" s="58"/>
-      <c r="I198" s="58"/>
-      <c r="J198" s="58"/>
-      <c r="K198" s="60"/>
-      <c r="L198" s="60"/>
-      <c r="M198" s="67"/>
-      <c r="N198" s="60"/>
-      <c r="O198" s="60"/>
-    </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B199" s="59"/>
-      <c r="C199" s="58"/>
-      <c r="D199" s="58"/>
-      <c r="E199" s="58"/>
-      <c r="F199" s="58"/>
-      <c r="G199" s="60"/>
-      <c r="H199" s="58"/>
-      <c r="I199" s="58"/>
-      <c r="J199" s="58"/>
-      <c r="K199" s="60"/>
-      <c r="L199" s="60"/>
-      <c r="M199" s="67"/>
-      <c r="N199" s="60"/>
-      <c r="O199" s="60"/>
-    </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B200" s="59"/>
-      <c r="C200" s="58"/>
-      <c r="D200" s="58"/>
-      <c r="E200" s="58"/>
-      <c r="F200" s="58"/>
-      <c r="G200" s="60"/>
-      <c r="H200" s="58"/>
-      <c r="I200" s="58"/>
-      <c r="J200" s="58"/>
-      <c r="K200" s="60"/>
-      <c r="L200" s="60"/>
-      <c r="M200" s="67"/>
-      <c r="N200" s="60"/>
-      <c r="O200" s="60"/>
-    </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B201" s="59"/>
-      <c r="C201" s="58"/>
-      <c r="D201" s="58"/>
-      <c r="E201" s="58"/>
-      <c r="F201" s="58"/>
-      <c r="G201" s="60"/>
-      <c r="H201" s="58"/>
-      <c r="I201" s="58"/>
-      <c r="J201" s="58"/>
-      <c r="K201" s="60"/>
-      <c r="L201" s="60"/>
-      <c r="M201" s="67"/>
-      <c r="N201" s="60"/>
-      <c r="O201" s="60"/>
-    </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B202" s="59"/>
-      <c r="C202" s="58"/>
-      <c r="D202" s="58"/>
-      <c r="E202" s="58"/>
-      <c r="F202" s="58"/>
-      <c r="G202" s="60"/>
-      <c r="H202" s="58"/>
-      <c r="I202" s="58"/>
-      <c r="J202" s="58"/>
-      <c r="K202" s="60"/>
-      <c r="L202" s="60"/>
-      <c r="M202" s="67"/>
-      <c r="N202" s="60"/>
-      <c r="O202" s="60"/>
-    </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B203" s="59"/>
-      <c r="C203" s="58"/>
-      <c r="D203" s="58"/>
-      <c r="E203" s="58"/>
-      <c r="F203" s="58"/>
-      <c r="G203" s="60"/>
-      <c r="H203" s="58"/>
-      <c r="I203" s="58"/>
-      <c r="J203" s="58"/>
-      <c r="K203" s="60"/>
-      <c r="L203" s="60"/>
-      <c r="M203" s="67"/>
-      <c r="N203" s="60"/>
-      <c r="O203" s="60"/>
-    </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B204" s="59"/>
-      <c r="C204" s="58"/>
-      <c r="D204" s="58"/>
-      <c r="E204" s="58"/>
-      <c r="F204" s="58"/>
-      <c r="G204" s="60"/>
-      <c r="H204" s="58"/>
-      <c r="I204" s="58"/>
-      <c r="J204" s="58"/>
-      <c r="K204" s="60"/>
-      <c r="L204" s="60"/>
-      <c r="M204" s="67"/>
-      <c r="N204" s="60"/>
-      <c r="O204" s="60"/>
-    </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B205" s="59"/>
-      <c r="C205" s="58"/>
-      <c r="D205" s="58"/>
-      <c r="E205" s="58"/>
-      <c r="F205" s="58"/>
-      <c r="G205" s="60"/>
-      <c r="H205" s="58"/>
-      <c r="I205" s="58"/>
-      <c r="J205" s="58"/>
-      <c r="K205" s="60"/>
-      <c r="L205" s="60"/>
-      <c r="M205" s="67"/>
-      <c r="N205" s="60"/>
-      <c r="O205" s="60"/>
-    </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B206" s="59"/>
-      <c r="C206" s="58"/>
-      <c r="D206" s="58"/>
-      <c r="E206" s="58"/>
-      <c r="F206" s="58"/>
-      <c r="G206" s="60"/>
-      <c r="H206" s="58"/>
-      <c r="I206" s="58"/>
-      <c r="J206" s="58"/>
-      <c r="K206" s="60"/>
-      <c r="L206" s="60"/>
-      <c r="M206" s="67"/>
-      <c r="N206" s="60"/>
-      <c r="O206" s="60"/>
-    </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B207" s="59"/>
-      <c r="C207" s="58"/>
-      <c r="D207" s="58"/>
-      <c r="E207" s="58"/>
-      <c r="F207" s="58"/>
-      <c r="G207" s="60"/>
-      <c r="H207" s="58"/>
-      <c r="I207" s="58"/>
-      <c r="J207" s="58"/>
-      <c r="K207" s="60"/>
-      <c r="L207" s="60"/>
-      <c r="M207" s="67"/>
-      <c r="N207" s="60"/>
-      <c r="O207" s="60"/>
-    </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B208" s="59"/>
-      <c r="C208" s="58"/>
-      <c r="D208" s="58"/>
-      <c r="E208" s="58"/>
-      <c r="F208" s="58"/>
-      <c r="G208" s="60"/>
-      <c r="H208" s="58"/>
-      <c r="I208" s="58"/>
-      <c r="J208" s="58"/>
-      <c r="K208" s="60"/>
-      <c r="L208" s="60"/>
-      <c r="M208" s="67"/>
-      <c r="N208" s="60"/>
-      <c r="O208" s="60"/>
-    </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B209" s="59"/>
-      <c r="C209" s="58"/>
-      <c r="D209" s="58"/>
-      <c r="E209" s="58"/>
-      <c r="F209" s="58"/>
-      <c r="G209" s="60"/>
-      <c r="H209" s="58"/>
-      <c r="I209" s="58"/>
-      <c r="J209" s="58"/>
-      <c r="K209" s="60"/>
-      <c r="L209" s="60"/>
-      <c r="M209" s="67"/>
-      <c r="N209" s="60"/>
-      <c r="O209" s="60"/>
-    </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B210" s="59"/>
-      <c r="C210" s="58"/>
-      <c r="D210" s="58"/>
-      <c r="E210" s="58"/>
-      <c r="F210" s="58"/>
-      <c r="G210" s="60"/>
-      <c r="H210" s="58"/>
-      <c r="I210" s="58"/>
-      <c r="J210" s="58"/>
-      <c r="K210" s="60"/>
-      <c r="L210" s="60"/>
-      <c r="M210" s="67"/>
-      <c r="N210" s="60"/>
-      <c r="O210" s="60"/>
-    </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B211" s="59"/>
-      <c r="C211" s="58"/>
-      <c r="D211" s="58"/>
-      <c r="E211" s="58"/>
-      <c r="F211" s="58"/>
-      <c r="G211" s="60"/>
-      <c r="H211" s="58"/>
-      <c r="I211" s="58"/>
-      <c r="J211" s="58"/>
-      <c r="K211" s="60"/>
-      <c r="L211" s="60"/>
-      <c r="M211" s="67"/>
-      <c r="N211" s="60"/>
-      <c r="O211" s="60"/>
-    </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B212" s="59"/>
-      <c r="C212" s="58"/>
-      <c r="D212" s="58"/>
-      <c r="E212" s="58"/>
-      <c r="F212" s="58"/>
-      <c r="G212" s="60"/>
-      <c r="H212" s="58"/>
-      <c r="I212" s="58"/>
-      <c r="J212" s="58"/>
-      <c r="K212" s="60"/>
-      <c r="L212" s="60"/>
-      <c r="M212" s="67"/>
-      <c r="N212" s="60"/>
-      <c r="O212" s="60"/>
-    </row>
-    <row r="213" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B213" s="59"/>
-      <c r="C213" s="58"/>
-      <c r="D213" s="58"/>
-      <c r="E213" s="58"/>
-      <c r="F213" s="58"/>
-      <c r="G213" s="60"/>
-      <c r="H213" s="58"/>
-      <c r="I213" s="58"/>
-      <c r="J213" s="58"/>
-      <c r="K213" s="60"/>
-      <c r="L213" s="60"/>
-      <c r="M213" s="67"/>
-      <c r="N213" s="60"/>
-      <c r="O213" s="60"/>
-    </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B214" s="59"/>
-      <c r="C214" s="58"/>
-      <c r="D214" s="58"/>
-      <c r="E214" s="58"/>
-      <c r="F214" s="58"/>
-      <c r="G214" s="60"/>
-      <c r="H214" s="58"/>
-      <c r="I214" s="58"/>
-      <c r="J214" s="58"/>
-      <c r="K214" s="60"/>
-      <c r="L214" s="60"/>
-      <c r="M214" s="67"/>
-      <c r="N214" s="60"/>
-      <c r="O214" s="60"/>
-    </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B215" s="59"/>
-      <c r="C215" s="58"/>
-      <c r="D215" s="58"/>
-      <c r="E215" s="58"/>
-      <c r="F215" s="58"/>
-      <c r="G215" s="60"/>
-      <c r="H215" s="58"/>
-      <c r="I215" s="58"/>
-      <c r="J215" s="58"/>
-      <c r="K215" s="60"/>
-      <c r="L215" s="60"/>
-      <c r="M215" s="67"/>
-      <c r="N215" s="60"/>
-      <c r="O215" s="60"/>
-    </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B216" s="59"/>
-      <c r="C216" s="58"/>
-      <c r="D216" s="58"/>
-      <c r="E216" s="58"/>
-      <c r="F216" s="58"/>
-      <c r="G216" s="60"/>
-      <c r="H216" s="58"/>
-      <c r="I216" s="58"/>
-      <c r="J216" s="58"/>
-      <c r="K216" s="60"/>
-      <c r="L216" s="60"/>
-      <c r="M216" s="67"/>
-      <c r="N216" s="60"/>
-      <c r="O216" s="60"/>
-    </row>
-    <row r="217" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B217" s="59"/>
-      <c r="C217" s="58"/>
-      <c r="D217" s="58"/>
-      <c r="E217" s="58"/>
-      <c r="F217" s="58"/>
-      <c r="G217" s="60"/>
-      <c r="H217" s="58"/>
-      <c r="I217" s="58"/>
-      <c r="J217" s="58"/>
-      <c r="K217" s="60"/>
-      <c r="L217" s="60"/>
-      <c r="M217" s="67"/>
-      <c r="N217" s="60"/>
-      <c r="O217" s="60"/>
-    </row>
-    <row r="218" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B218" s="59"/>
-      <c r="C218" s="58"/>
-      <c r="D218" s="58"/>
-      <c r="E218" s="58"/>
-      <c r="F218" s="58"/>
-      <c r="G218" s="60"/>
-      <c r="H218" s="58"/>
-      <c r="I218" s="58"/>
-      <c r="J218" s="58"/>
-      <c r="K218" s="60"/>
-      <c r="L218" s="60"/>
-      <c r="M218" s="67"/>
-      <c r="N218" s="60"/>
-      <c r="O218" s="60"/>
-    </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B219" s="59"/>
-      <c r="C219" s="58"/>
-      <c r="D219" s="58"/>
-      <c r="E219" s="58"/>
-      <c r="F219" s="58"/>
-      <c r="G219" s="60"/>
-      <c r="H219" s="58"/>
-      <c r="I219" s="58"/>
-      <c r="J219" s="58"/>
-      <c r="K219" s="60"/>
-      <c r="L219" s="60"/>
-      <c r="M219" s="67"/>
-      <c r="N219" s="60"/>
-      <c r="O219" s="60"/>
-    </row>
-    <row r="220" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B220" s="59"/>
-      <c r="C220" s="58"/>
-      <c r="D220" s="58"/>
-      <c r="E220" s="58"/>
-      <c r="F220" s="58"/>
-      <c r="G220" s="60"/>
-      <c r="H220" s="58"/>
-      <c r="I220" s="58"/>
-      <c r="J220" s="58"/>
-      <c r="K220" s="60"/>
-      <c r="L220" s="60"/>
-      <c r="M220" s="67"/>
-      <c r="N220" s="60"/>
-      <c r="O220" s="60"/>
-    </row>
-    <row r="221" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B221" s="59"/>
-      <c r="C221" s="58"/>
-      <c r="D221" s="58"/>
-      <c r="E221" s="58"/>
-      <c r="F221" s="58"/>
-      <c r="G221" s="60"/>
-      <c r="H221" s="58"/>
-      <c r="I221" s="58"/>
-      <c r="J221" s="58"/>
-      <c r="K221" s="60"/>
-      <c r="L221" s="60"/>
-      <c r="M221" s="67"/>
-      <c r="N221" s="60"/>
-      <c r="O221" s="60"/>
-    </row>
-    <row r="222" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B222" s="59"/>
-      <c r="C222" s="58"/>
-      <c r="D222" s="58"/>
-      <c r="E222" s="58"/>
-      <c r="F222" s="58"/>
-      <c r="G222" s="60"/>
-      <c r="H222" s="58"/>
-      <c r="I222" s="58"/>
-      <c r="J222" s="58"/>
-      <c r="K222" s="60"/>
-      <c r="L222" s="60"/>
-      <c r="M222" s="67"/>
-      <c r="N222" s="60"/>
-      <c r="O222" s="60"/>
-    </row>
-    <row r="223" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B223" s="59"/>
-      <c r="C223" s="58"/>
-      <c r="D223" s="58"/>
-      <c r="E223" s="58"/>
-      <c r="F223" s="58"/>
-      <c r="G223" s="60"/>
-      <c r="H223" s="58"/>
-      <c r="I223" s="58"/>
-      <c r="J223" s="58"/>
-      <c r="K223" s="60"/>
-      <c r="L223" s="60"/>
-      <c r="M223" s="67"/>
-      <c r="N223" s="60"/>
-      <c r="O223" s="60"/>
-    </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B224" s="59"/>
-      <c r="C224" s="58"/>
-      <c r="D224" s="58"/>
-      <c r="E224" s="58"/>
-      <c r="F224" s="58"/>
-      <c r="G224" s="60"/>
-      <c r="H224" s="58"/>
-      <c r="I224" s="58"/>
-      <c r="J224" s="58"/>
-      <c r="K224" s="60"/>
-      <c r="L224" s="60"/>
-      <c r="M224" s="67"/>
-      <c r="N224" s="60"/>
-      <c r="O224" s="60"/>
-    </row>
-    <row r="225" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B225" s="59"/>
-      <c r="C225" s="58"/>
-      <c r="D225" s="58"/>
-      <c r="E225" s="58"/>
-      <c r="F225" s="58"/>
-      <c r="G225" s="60"/>
-      <c r="H225" s="58"/>
-      <c r="I225" s="58"/>
-      <c r="J225" s="58"/>
-      <c r="K225" s="60"/>
-      <c r="L225" s="60"/>
-      <c r="M225" s="67"/>
-      <c r="N225" s="60"/>
-      <c r="O225" s="60"/>
-    </row>
-    <row r="226" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B226" s="59"/>
-      <c r="C226" s="58"/>
-      <c r="D226" s="58"/>
-      <c r="E226" s="58"/>
-      <c r="F226" s="58"/>
-      <c r="G226" s="60"/>
-      <c r="H226" s="58"/>
-      <c r="I226" s="58"/>
-      <c r="J226" s="58"/>
-      <c r="K226" s="60"/>
-      <c r="L226" s="60"/>
-      <c r="M226" s="67"/>
-      <c r="N226" s="60"/>
-      <c r="O226" s="60"/>
-    </row>
-    <row r="227" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B227" s="59"/>
-      <c r="C227" s="58"/>
-      <c r="D227" s="58"/>
-      <c r="E227" s="58"/>
-      <c r="F227" s="58"/>
-      <c r="G227" s="60"/>
-      <c r="H227" s="58"/>
-      <c r="I227" s="58"/>
-      <c r="J227" s="58"/>
-      <c r="K227" s="60"/>
-      <c r="L227" s="60"/>
-      <c r="M227" s="67"/>
-      <c r="N227" s="60"/>
-      <c r="O227" s="60"/>
-    </row>
-    <row r="228" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B228" s="59"/>
-      <c r="C228" s="58"/>
-      <c r="D228" s="58"/>
-      <c r="E228" s="58"/>
-      <c r="F228" s="58"/>
-      <c r="G228" s="60"/>
-      <c r="H228" s="58"/>
-      <c r="I228" s="58"/>
-      <c r="J228" s="58"/>
-      <c r="K228" s="60"/>
-      <c r="L228" s="60"/>
-      <c r="M228" s="67"/>
-      <c r="N228" s="60"/>
-      <c r="O228" s="60"/>
-    </row>
-    <row r="229" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B229" s="59"/>
-      <c r="C229" s="58"/>
-      <c r="D229" s="58"/>
-      <c r="E229" s="58"/>
-      <c r="F229" s="58"/>
-      <c r="G229" s="60"/>
-      <c r="H229" s="58"/>
-      <c r="I229" s="58"/>
-      <c r="J229" s="58"/>
-      <c r="K229" s="60"/>
-      <c r="L229" s="60"/>
-      <c r="M229" s="67"/>
-      <c r="N229" s="60"/>
-      <c r="O229" s="60"/>
-    </row>
-    <row r="230" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B230" s="59"/>
-      <c r="C230" s="58"/>
-      <c r="D230" s="58"/>
-      <c r="E230" s="58"/>
-      <c r="F230" s="58"/>
-      <c r="G230" s="60"/>
-      <c r="H230" s="58"/>
-      <c r="I230" s="58"/>
-      <c r="J230" s="58"/>
-      <c r="K230" s="60"/>
-      <c r="L230" s="60"/>
-      <c r="M230" s="67"/>
-      <c r="N230" s="60"/>
-      <c r="O230" s="60"/>
-    </row>
-    <row r="231" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B231" s="59"/>
-      <c r="C231" s="58"/>
-      <c r="D231" s="58"/>
-      <c r="E231" s="58"/>
-      <c r="F231" s="58"/>
-      <c r="G231" s="60"/>
-      <c r="H231" s="58"/>
-      <c r="I231" s="58"/>
-      <c r="J231" s="58"/>
-      <c r="K231" s="60"/>
-      <c r="L231" s="60"/>
-      <c r="M231" s="67"/>
-      <c r="N231" s="60"/>
-      <c r="O231" s="60"/>
-    </row>
-    <row r="232" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B232" s="59"/>
-      <c r="C232" s="58"/>
-      <c r="D232" s="58"/>
-      <c r="E232" s="58"/>
-      <c r="F232" s="58"/>
-      <c r="G232" s="60"/>
-      <c r="H232" s="58"/>
-      <c r="I232" s="58"/>
-      <c r="J232" s="58"/>
-      <c r="K232" s="60"/>
-      <c r="L232" s="60"/>
-      <c r="M232" s="67"/>
-      <c r="N232" s="60"/>
-      <c r="O232" s="60"/>
-    </row>
-    <row r="233" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B233" s="59"/>
-      <c r="C233" s="58"/>
-      <c r="D233" s="58"/>
-      <c r="E233" s="58"/>
-      <c r="F233" s="58"/>
-      <c r="G233" s="60"/>
-      <c r="H233" s="58"/>
-      <c r="I233" s="58"/>
-      <c r="J233" s="58"/>
-      <c r="K233" s="60"/>
-      <c r="L233" s="60"/>
-      <c r="M233" s="67"/>
-      <c r="N233" s="60"/>
-      <c r="O233" s="60"/>
-    </row>
-    <row r="234" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B234" s="59"/>
-      <c r="C234" s="58"/>
-      <c r="D234" s="58"/>
-      <c r="E234" s="58"/>
-      <c r="F234" s="58"/>
-      <c r="G234" s="60"/>
-      <c r="H234" s="58"/>
-      <c r="I234" s="58"/>
-      <c r="J234" s="58"/>
-      <c r="K234" s="60"/>
-      <c r="L234" s="60"/>
-      <c r="M234" s="67"/>
-      <c r="N234" s="60"/>
-      <c r="O234" s="60"/>
-    </row>
-    <row r="235" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B235" s="59"/>
-      <c r="C235" s="58"/>
-      <c r="D235" s="58"/>
-      <c r="E235" s="58"/>
-      <c r="F235" s="58"/>
-      <c r="G235" s="60"/>
-      <c r="H235" s="58"/>
-      <c r="I235" s="58"/>
-      <c r="J235" s="58"/>
-      <c r="K235" s="60"/>
-      <c r="L235" s="60"/>
-      <c r="M235" s="67"/>
-      <c r="N235" s="60"/>
-      <c r="O235" s="60"/>
-    </row>
-    <row r="236" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B236" s="59"/>
-      <c r="C236" s="58"/>
-      <c r="D236" s="58"/>
-      <c r="E236" s="58"/>
-      <c r="F236" s="58"/>
-      <c r="G236" s="60"/>
-      <c r="H236" s="58"/>
-      <c r="I236" s="58"/>
-      <c r="J236" s="58"/>
-      <c r="K236" s="60"/>
-      <c r="L236" s="60"/>
-      <c r="M236" s="67"/>
-      <c r="N236" s="60"/>
-      <c r="O236" s="60"/>
-    </row>
-    <row r="237" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B237" s="59"/>
-      <c r="C237" s="58"/>
-      <c r="D237" s="58"/>
-      <c r="E237" s="58"/>
-      <c r="F237" s="58"/>
-      <c r="G237" s="60"/>
-      <c r="H237" s="58"/>
-      <c r="I237" s="58"/>
-      <c r="J237" s="58"/>
-      <c r="K237" s="60"/>
-      <c r="L237" s="60"/>
-      <c r="M237" s="67"/>
-      <c r="N237" s="60"/>
-      <c r="O237" s="60"/>
-    </row>
-    <row r="238" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B238" s="59"/>
-      <c r="C238" s="58"/>
-      <c r="D238" s="58"/>
-      <c r="E238" s="58"/>
-      <c r="F238" s="58"/>
-      <c r="G238" s="60"/>
-      <c r="H238" s="58"/>
-      <c r="I238" s="58"/>
-      <c r="J238" s="58"/>
-      <c r="K238" s="60"/>
-      <c r="L238" s="60"/>
-      <c r="M238" s="67"/>
-      <c r="N238" s="60"/>
-      <c r="O238" s="60"/>
-    </row>
-    <row r="239" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B239" s="59"/>
-      <c r="C239" s="58"/>
-      <c r="D239" s="58"/>
-      <c r="E239" s="58"/>
-      <c r="F239" s="58"/>
-      <c r="G239" s="60"/>
-      <c r="H239" s="58"/>
-      <c r="I239" s="58"/>
-      <c r="J239" s="58"/>
-      <c r="K239" s="60"/>
-      <c r="L239" s="60"/>
-      <c r="M239" s="67"/>
-      <c r="N239" s="60"/>
-      <c r="O239" s="60"/>
-    </row>
-    <row r="240" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B240" s="59"/>
-      <c r="C240" s="58"/>
-      <c r="D240" s="58"/>
-      <c r="E240" s="58"/>
-      <c r="F240" s="58"/>
-      <c r="G240" s="60"/>
-      <c r="H240" s="58"/>
-      <c r="I240" s="58"/>
-      <c r="J240" s="58"/>
-      <c r="K240" s="60"/>
-      <c r="L240" s="60"/>
-      <c r="M240" s="67"/>
-      <c r="N240" s="60"/>
-      <c r="O240" s="60"/>
-    </row>
-    <row r="241" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B241" s="59"/>
-      <c r="C241" s="58"/>
-      <c r="D241" s="58"/>
-      <c r="E241" s="58"/>
-      <c r="F241" s="58"/>
-      <c r="G241" s="60"/>
-      <c r="H241" s="58"/>
-      <c r="I241" s="58"/>
-      <c r="J241" s="58"/>
-      <c r="K241" s="60"/>
-      <c r="L241" s="60"/>
-      <c r="M241" s="67"/>
-      <c r="N241" s="60"/>
-      <c r="O241" s="60"/>
-    </row>
-    <row r="242" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B242" s="59"/>
-      <c r="C242" s="58"/>
-      <c r="D242" s="58"/>
-      <c r="E242" s="58"/>
-      <c r="F242" s="58"/>
-      <c r="G242" s="60"/>
-      <c r="H242" s="58"/>
-      <c r="I242" s="58"/>
-      <c r="J242" s="58"/>
-      <c r="K242" s="60"/>
-      <c r="L242" s="60"/>
-      <c r="M242" s="67"/>
-      <c r="N242" s="60"/>
-      <c r="O242" s="60"/>
-    </row>
-    <row r="243" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B243" s="59"/>
-      <c r="C243" s="58"/>
-      <c r="D243" s="58"/>
-      <c r="E243" s="58"/>
-      <c r="F243" s="58"/>
-      <c r="G243" s="60"/>
-      <c r="H243" s="58"/>
-      <c r="I243" s="58"/>
-      <c r="J243" s="58"/>
-      <c r="K243" s="60"/>
-      <c r="L243" s="60"/>
-      <c r="M243" s="67"/>
-      <c r="N243" s="60"/>
-      <c r="O243" s="60"/>
-    </row>
-    <row r="244" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B244" s="59"/>
-      <c r="C244" s="58"/>
-      <c r="D244" s="58"/>
-      <c r="E244" s="58"/>
-      <c r="F244" s="58"/>
-      <c r="G244" s="60"/>
-      <c r="H244" s="58"/>
-      <c r="I244" s="58"/>
-      <c r="J244" s="58"/>
-      <c r="K244" s="60"/>
-      <c r="L244" s="60"/>
-      <c r="M244" s="67"/>
-      <c r="N244" s="60"/>
-      <c r="O244" s="60"/>
-    </row>
-    <row r="245" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B245" s="59"/>
-      <c r="C245" s="58"/>
-      <c r="D245" s="58"/>
-      <c r="E245" s="58"/>
-      <c r="F245" s="58"/>
-      <c r="G245" s="60"/>
-      <c r="H245" s="58"/>
-      <c r="I245" s="58"/>
-      <c r="J245" s="58"/>
-      <c r="K245" s="60"/>
-      <c r="L245" s="60"/>
-      <c r="M245" s="67"/>
-      <c r="N245" s="60"/>
-      <c r="O245" s="60"/>
-    </row>
-    <row r="246" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B246" s="59"/>
-      <c r="C246" s="58"/>
-      <c r="D246" s="58"/>
-      <c r="E246" s="58"/>
-      <c r="F246" s="58"/>
-      <c r="G246" s="60"/>
-      <c r="H246" s="58"/>
-      <c r="I246" s="58"/>
-      <c r="J246" s="58"/>
-      <c r="K246" s="60"/>
-      <c r="L246" s="60"/>
-      <c r="M246" s="67"/>
-      <c r="N246" s="60"/>
-      <c r="O246" s="60"/>
-    </row>
-    <row r="247" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B247" s="59"/>
-      <c r="C247" s="58"/>
-      <c r="D247" s="58"/>
-      <c r="E247" s="58"/>
-      <c r="F247" s="58"/>
-      <c r="G247" s="60"/>
-      <c r="H247" s="58"/>
-      <c r="I247" s="58"/>
-      <c r="J247" s="58"/>
-      <c r="K247" s="60"/>
-      <c r="L247" s="60"/>
-      <c r="M247" s="67"/>
-      <c r="N247" s="60"/>
-      <c r="O247" s="60"/>
-    </row>
-    <row r="248" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B248" s="59"/>
-      <c r="C248" s="58"/>
-      <c r="D248" s="58"/>
-      <c r="E248" s="58"/>
-      <c r="F248" s="58"/>
-      <c r="G248" s="60"/>
-      <c r="H248" s="58"/>
-      <c r="I248" s="58"/>
-      <c r="J248" s="58"/>
-      <c r="K248" s="60"/>
-      <c r="L248" s="60"/>
-      <c r="M248" s="67"/>
-      <c r="N248" s="60"/>
-      <c r="O248" s="60"/>
-    </row>
-    <row r="249" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B249" s="59"/>
-      <c r="C249" s="58"/>
-      <c r="D249" s="58"/>
-      <c r="E249" s="58"/>
-      <c r="F249" s="58"/>
-      <c r="G249" s="60"/>
-      <c r="H249" s="58"/>
-      <c r="I249" s="58"/>
-      <c r="J249" s="58"/>
-      <c r="K249" s="60"/>
-      <c r="L249" s="60"/>
-      <c r="M249" s="67"/>
-      <c r="N249" s="60"/>
-      <c r="O249" s="60"/>
-    </row>
-    <row r="250" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B250" s="59"/>
-      <c r="C250" s="58"/>
-      <c r="D250" s="58"/>
-      <c r="E250" s="58"/>
-      <c r="F250" s="58"/>
-      <c r="G250" s="60"/>
-      <c r="H250" s="58"/>
-      <c r="I250" s="58"/>
-      <c r="J250" s="58"/>
-      <c r="K250" s="60"/>
-      <c r="L250" s="60"/>
-      <c r="M250" s="67"/>
-      <c r="N250" s="60"/>
-      <c r="O250" s="60"/>
-    </row>
-    <row r="251" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B251" s="59"/>
-      <c r="C251" s="58"/>
-      <c r="D251" s="58"/>
-      <c r="E251" s="58"/>
-      <c r="F251" s="58"/>
-      <c r="G251" s="60"/>
-      <c r="H251" s="58"/>
-      <c r="I251" s="58"/>
-      <c r="J251" s="58"/>
-      <c r="K251" s="60"/>
-      <c r="L251" s="60"/>
-      <c r="M251" s="67"/>
-      <c r="N251" s="60"/>
-      <c r="O251" s="60"/>
-    </row>
-    <row r="252" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B252" s="59"/>
-      <c r="C252" s="58"/>
-      <c r="D252" s="58"/>
-      <c r="E252" s="58"/>
-      <c r="F252" s="58"/>
-      <c r="G252" s="60"/>
-      <c r="H252" s="58"/>
-      <c r="I252" s="58"/>
-      <c r="J252" s="58"/>
-      <c r="K252" s="60"/>
-      <c r="L252" s="60"/>
-      <c r="M252" s="67"/>
-      <c r="N252" s="60"/>
-      <c r="O252" s="60"/>
-    </row>
-    <row r="253" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B253" s="59"/>
-      <c r="C253" s="58"/>
-      <c r="D253" s="58"/>
-      <c r="E253" s="58"/>
-      <c r="F253" s="58"/>
-      <c r="G253" s="60"/>
-      <c r="H253" s="58"/>
-      <c r="I253" s="58"/>
-      <c r="J253" s="58"/>
-      <c r="K253" s="60"/>
-      <c r="L253" s="60"/>
-      <c r="M253" s="67"/>
-      <c r="N253" s="60"/>
-      <c r="O253" s="60"/>
-    </row>
-    <row r="254" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B254" s="59"/>
-      <c r="C254" s="58"/>
-      <c r="D254" s="58"/>
-      <c r="E254" s="58"/>
-      <c r="F254" s="58"/>
-      <c r="G254" s="60"/>
-      <c r="H254" s="58"/>
-      <c r="I254" s="58"/>
-      <c r="J254" s="58"/>
-      <c r="K254" s="60"/>
-      <c r="L254" s="60"/>
-      <c r="M254" s="67"/>
-      <c r="N254" s="60"/>
-      <c r="O254" s="60"/>
-    </row>
-    <row r="255" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B255" s="59"/>
-      <c r="C255" s="58"/>
-      <c r="D255" s="58"/>
-      <c r="E255" s="58"/>
-      <c r="F255" s="58"/>
-      <c r="G255" s="60"/>
-      <c r="H255" s="58"/>
-      <c r="I255" s="58"/>
-      <c r="J255" s="58"/>
-      <c r="K255" s="60"/>
-      <c r="L255" s="60"/>
-      <c r="M255" s="67"/>
-      <c r="N255" s="60"/>
-      <c r="O255" s="60"/>
-    </row>
-    <row r="256" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B256" s="59"/>
-      <c r="C256" s="58"/>
-      <c r="D256" s="58"/>
-      <c r="E256" s="58"/>
-      <c r="F256" s="58"/>
-      <c r="G256" s="60"/>
-      <c r="H256" s="58"/>
-      <c r="I256" s="58"/>
-      <c r="J256" s="58"/>
-      <c r="K256" s="60"/>
-      <c r="L256" s="60"/>
-      <c r="M256" s="67"/>
-      <c r="N256" s="60"/>
-      <c r="O256" s="60"/>
-    </row>
-    <row r="257" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B257" s="59"/>
-      <c r="C257" s="58"/>
-      <c r="D257" s="58"/>
-      <c r="E257" s="58"/>
-      <c r="F257" s="58"/>
-      <c r="G257" s="60"/>
-      <c r="H257" s="58"/>
-      <c r="I257" s="58"/>
-      <c r="J257" s="58"/>
-      <c r="K257" s="60"/>
-      <c r="L257" s="60"/>
-      <c r="M257" s="67"/>
-      <c r="N257" s="60"/>
-      <c r="O257" s="60"/>
-    </row>
-    <row r="258" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B258" s="59"/>
-      <c r="C258" s="58"/>
-      <c r="D258" s="58"/>
-      <c r="E258" s="58"/>
-      <c r="F258" s="58"/>
-      <c r="G258" s="60"/>
-      <c r="H258" s="58"/>
-      <c r="I258" s="58"/>
-      <c r="J258" s="58"/>
-      <c r="K258" s="60"/>
-      <c r="L258" s="60"/>
-      <c r="M258" s="67"/>
-      <c r="N258" s="60"/>
-      <c r="O258" s="60"/>
-    </row>
-    <row r="259" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B259" s="59"/>
-      <c r="C259" s="58"/>
-      <c r="D259" s="58"/>
-      <c r="E259" s="58"/>
-      <c r="F259" s="58"/>
-      <c r="G259" s="60"/>
-      <c r="H259" s="58"/>
-      <c r="I259" s="58"/>
-      <c r="J259" s="58"/>
-      <c r="K259" s="60"/>
-      <c r="L259" s="60"/>
-      <c r="M259" s="67"/>
-      <c r="N259" s="60"/>
-      <c r="O259" s="60"/>
-    </row>
-    <row r="260" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B260" s="59"/>
-      <c r="C260" s="58"/>
-      <c r="D260" s="58"/>
-      <c r="E260" s="58"/>
-      <c r="F260" s="58"/>
-      <c r="G260" s="60"/>
-      <c r="H260" s="58"/>
-      <c r="I260" s="58"/>
-      <c r="J260" s="58"/>
-      <c r="K260" s="60"/>
-      <c r="L260" s="60"/>
-      <c r="M260" s="67"/>
-      <c r="N260" s="60"/>
-      <c r="O260" s="60"/>
-    </row>
-    <row r="261" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B261" s="59"/>
-      <c r="C261" s="58"/>
-      <c r="D261" s="58"/>
-      <c r="E261" s="58"/>
-      <c r="F261" s="58"/>
-      <c r="G261" s="60"/>
-      <c r="H261" s="58"/>
-      <c r="I261" s="58"/>
-      <c r="J261" s="58"/>
-      <c r="K261" s="60"/>
-      <c r="L261" s="60"/>
-      <c r="M261" s="67"/>
-      <c r="N261" s="60"/>
-      <c r="O261" s="60"/>
-    </row>
-    <row r="262" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B262" s="59"/>
-      <c r="C262" s="58"/>
-      <c r="D262" s="58"/>
-      <c r="E262" s="58"/>
-      <c r="F262" s="58"/>
-      <c r="G262" s="60"/>
-      <c r="H262" s="58"/>
-      <c r="I262" s="58"/>
-      <c r="J262" s="58"/>
-      <c r="K262" s="60"/>
-      <c r="L262" s="60"/>
-      <c r="M262" s="67"/>
-      <c r="N262" s="60"/>
-      <c r="O262" s="60"/>
-    </row>
-    <row r="263" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B263" s="59"/>
-      <c r="C263" s="58"/>
-      <c r="D263" s="58"/>
-      <c r="E263" s="58"/>
-      <c r="F263" s="58"/>
-      <c r="G263" s="60"/>
-      <c r="H263" s="58"/>
-      <c r="I263" s="58"/>
-      <c r="J263" s="58"/>
-      <c r="K263" s="60"/>
-      <c r="L263" s="60"/>
-      <c r="M263" s="67"/>
-      <c r="N263" s="60"/>
-      <c r="O263" s="60"/>
-    </row>
-    <row r="264" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B264" s="59"/>
-      <c r="C264" s="58"/>
-      <c r="D264" s="58"/>
-      <c r="E264" s="58"/>
-      <c r="F264" s="58"/>
-      <c r="G264" s="60"/>
-      <c r="H264" s="58"/>
-      <c r="I264" s="58"/>
-      <c r="J264" s="58"/>
-      <c r="K264" s="60"/>
-      <c r="L264" s="60"/>
-      <c r="M264" s="67"/>
-      <c r="N264" s="60"/>
-      <c r="O264" s="60"/>
-    </row>
-    <row r="265" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B265" s="59"/>
-      <c r="C265" s="58"/>
-      <c r="D265" s="58"/>
-      <c r="E265" s="58"/>
-      <c r="F265" s="58"/>
-      <c r="G265" s="60"/>
-      <c r="H265" s="58"/>
-      <c r="I265" s="58"/>
-      <c r="J265" s="58"/>
-      <c r="K265" s="60"/>
-      <c r="L265" s="60"/>
-      <c r="M265" s="67"/>
-      <c r="N265" s="60"/>
-      <c r="O265" s="60"/>
-    </row>
-    <row r="266" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B266" s="59"/>
-      <c r="C266" s="58"/>
-      <c r="D266" s="58"/>
-      <c r="E266" s="58"/>
-      <c r="F266" s="58"/>
-      <c r="G266" s="60"/>
-      <c r="H266" s="58"/>
-      <c r="I266" s="58"/>
-      <c r="J266" s="58"/>
-      <c r="K266" s="60"/>
-      <c r="L266" s="60"/>
-      <c r="M266" s="67"/>
-      <c r="N266" s="60"/>
-      <c r="O266" s="60"/>
-    </row>
-    <row r="267" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B267" s="59"/>
-      <c r="C267" s="58"/>
-      <c r="D267" s="58"/>
-      <c r="E267" s="58"/>
-      <c r="F267" s="58"/>
-      <c r="G267" s="60"/>
-      <c r="H267" s="58"/>
-      <c r="I267" s="58"/>
-      <c r="J267" s="58"/>
-      <c r="K267" s="60"/>
-      <c r="L267" s="60"/>
-      <c r="M267" s="67"/>
-      <c r="N267" s="60"/>
-      <c r="O267" s="60"/>
-    </row>
-    <row r="268" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B268" s="59"/>
-      <c r="C268" s="58"/>
-      <c r="D268" s="58"/>
-      <c r="E268" s="58"/>
-      <c r="F268" s="58"/>
-      <c r="G268" s="60"/>
-      <c r="H268" s="58"/>
-      <c r="I268" s="58"/>
-      <c r="J268" s="58"/>
-      <c r="K268" s="60"/>
-      <c r="L268" s="60"/>
-      <c r="M268" s="67"/>
-      <c r="N268" s="60"/>
-      <c r="O268" s="60"/>
-    </row>
-    <row r="269" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B269" s="59"/>
-      <c r="C269" s="58"/>
-      <c r="D269" s="58"/>
-      <c r="E269" s="58"/>
-      <c r="F269" s="58"/>
-      <c r="G269" s="60"/>
-      <c r="H269" s="58"/>
-      <c r="I269" s="58"/>
-      <c r="J269" s="58"/>
-      <c r="K269" s="60"/>
-      <c r="L269" s="60"/>
-      <c r="M269" s="67"/>
-      <c r="N269" s="60"/>
-      <c r="O269" s="60"/>
-    </row>
-    <row r="270" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B270" s="59"/>
-      <c r="C270" s="58"/>
-      <c r="D270" s="58"/>
-      <c r="E270" s="58"/>
-      <c r="F270" s="58"/>
-      <c r="G270" s="60"/>
-      <c r="H270" s="58"/>
-      <c r="I270" s="58"/>
-      <c r="J270" s="58"/>
-      <c r="K270" s="60"/>
-      <c r="L270" s="60"/>
-      <c r="M270" s="67"/>
-      <c r="N270" s="60"/>
-      <c r="O270" s="60"/>
-    </row>
-    <row r="271" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B271" s="59"/>
-      <c r="C271" s="58"/>
-      <c r="D271" s="58"/>
-      <c r="E271" s="58"/>
-      <c r="F271" s="58"/>
-      <c r="G271" s="60"/>
-      <c r="H271" s="58"/>
-      <c r="I271" s="58"/>
-      <c r="J271" s="58"/>
-      <c r="K271" s="60"/>
-      <c r="L271" s="60"/>
-      <c r="M271" s="67"/>
-      <c r="N271" s="60"/>
-      <c r="O271" s="60"/>
-    </row>
-    <row r="272" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B272" s="59"/>
-      <c r="C272" s="58"/>
-      <c r="D272" s="58"/>
-      <c r="E272" s="58"/>
-      <c r="F272" s="58"/>
-      <c r="G272" s="60"/>
-      <c r="H272" s="58"/>
-      <c r="I272" s="58"/>
-      <c r="J272" s="58"/>
-      <c r="K272" s="60"/>
-      <c r="L272" s="60"/>
-      <c r="M272" s="67"/>
-      <c r="N272" s="60"/>
-      <c r="O272" s="60"/>
-    </row>
-    <row r="273" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B273" s="59"/>
-      <c r="C273" s="58"/>
-      <c r="D273" s="58"/>
-      <c r="E273" s="58"/>
-      <c r="F273" s="58"/>
-      <c r="G273" s="60"/>
-      <c r="H273" s="58"/>
-      <c r="I273" s="58"/>
-      <c r="J273" s="58"/>
-      <c r="K273" s="60"/>
-      <c r="L273" s="60"/>
-      <c r="M273" s="67"/>
-      <c r="N273" s="60"/>
-      <c r="O273" s="60"/>
-    </row>
-    <row r="274" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B274" s="59"/>
-      <c r="C274" s="58"/>
-      <c r="D274" s="58"/>
-      <c r="E274" s="58"/>
-      <c r="F274" s="58"/>
-      <c r="G274" s="60"/>
-      <c r="H274" s="58"/>
-      <c r="I274" s="58"/>
-      <c r="J274" s="58"/>
-      <c r="K274" s="60"/>
-      <c r="L274" s="60"/>
-      <c r="M274" s="67"/>
-      <c r="N274" s="60"/>
-      <c r="O274" s="60"/>
-    </row>
-    <row r="275" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B275" s="59"/>
-      <c r="C275" s="58"/>
-      <c r="D275" s="58"/>
-      <c r="E275" s="58"/>
-      <c r="F275" s="58"/>
-      <c r="G275" s="60"/>
-      <c r="H275" s="58"/>
-      <c r="I275" s="58"/>
-      <c r="J275" s="58"/>
-      <c r="K275" s="60"/>
-      <c r="L275" s="60"/>
-      <c r="M275" s="67"/>
-      <c r="N275" s="60"/>
-      <c r="O275" s="60"/>
-    </row>
-    <row r="276" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B276" s="59"/>
-      <c r="C276" s="58"/>
-      <c r="D276" s="58"/>
-      <c r="E276" s="58"/>
-      <c r="F276" s="58"/>
-      <c r="G276" s="60"/>
-      <c r="H276" s="58"/>
-      <c r="I276" s="58"/>
-      <c r="J276" s="58"/>
-      <c r="K276" s="60"/>
-      <c r="L276" s="60"/>
-      <c r="M276" s="67"/>
-      <c r="N276" s="60"/>
-      <c r="O276" s="60"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
+      <c r="B3" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14422,21 +10056,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F869FB7CDC4CB94298D700C417F43B14" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ddc1ed8db2cb07ec0345f40e9965cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b33d107c-a448-497d-b606-00e85b1f002a" xmlns:ns4="78603c86-20b2-473c-8048-4163dd4c73c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185c07f72270aa66c93c84fd1258fc1d" ns3:_="" ns4:_="">
     <xsd:import namespace="b33d107c-a448-497d-b606-00e85b1f002a"/>
@@ -14659,32 +10278,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14701,4 +10310,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>